--- a/GantExcel/未来創造展_ガントチャート/02_各画面.xlsx
+++ b/GantExcel/未来創造展_ガントチャート/02_各画面.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hyllos\Desktop\未来創造展_ガントチャート\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="17235" windowHeight="10545"/>
   </bookViews>
@@ -18,7 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">プロジェクト!$A$9:$DE$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">プロジェクト!$A$9:$DE$129</definedName>
     <definedName name="№列">プロジェクト!$A$9</definedName>
     <definedName name="ステータス列">プロジェクト!$H$9</definedName>
     <definedName name="バージョン">プロジェクト!$D$1</definedName>
@@ -32,12 +27,12 @@
     <definedName name="担当者列">プロジェクト!$C$9</definedName>
     <definedName name="報告日">プロジェクト!$F$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>報告日：</t>
     <rPh sb="0" eb="2">
@@ -114,26 +109,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ゲーム準備</t>
-    <rPh sb="3" eb="5">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>タイトル</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ゲームエントリー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ゲームメイン</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リザルト</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -182,6 +162,105 @@
     <rPh sb="3" eb="5">
       <t>ショリ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タイトルからフェードイン</t>
+  </si>
+  <si>
+    <t>４人エントリー後、フェードアウトしてゲームへ遷移</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Bボタンでエントリー(1P,2P,3P,4P)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エントリーボタン入力後に、プレイヤーキャラクターを表示する
+（1P:左上 2P:左下 3P:右上 4P:右下）</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エントリーボタン入力後に、○Ｐ ＯＫを表示する
+（1P:左上 2P:左下 3P:右上 4P:右下）</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全コントローラー（1P～4P）のボタンの入力受付処理</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタンが押されたらフェードアウトしてエントリーへ遷移する</t>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タイトル画像（仮）を全画面表示</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PRESSANYKEYのロゴ点滅表示（速度：要調整：0.5）</t>
+    <rPh sb="19" eb="21">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ヨウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ゲーム準備とゲームメインは処理で併合する場所があるので現在未記載</t>
+    <rPh sb="3" eb="5">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘイゴウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ミキサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リザルト : エアライド風に（完コピ）</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -267,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -593,6 +672,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="44"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="44"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="44"/>
+      </right>
+      <top style="dotted">
+        <color indexed="44"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="44"/>
+      </left>
+      <right style="thin">
+        <color indexed="44"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="44"/>
+      </left>
+      <right style="thin">
+        <color indexed="44"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="44"/>
+      </left>
+      <right style="thin">
+        <color indexed="44"/>
+      </right>
+      <top style="thin">
+        <color indexed="44"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,7 +761,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,9 +873,6 @@
     <xf numFmtId="56" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,6 +964,30 @@
     <xf numFmtId="9" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -817,7 +995,7 @@
     <cellStyle name="標準_TimeLine" xfId="1"/>
     <cellStyle name="標準_静岡3S019600-管理-003【関西ホスト移設スケジュール】 (version 1)" xfId="3"/>
   </cellStyles>
-  <dxfs count="504">
+  <dxfs count="506">
     <dxf>
       <fill>
         <patternFill>
@@ -4336,6 +4514,20 @@
       <fill>
         <patternFill>
           <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4428,7 +4620,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4470,7 +4662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4505,7 +4697,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4715,25 +4907,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="BaseSheet1"/>
-  <dimension ref="A1:DE121"/>
+  <dimension ref="A1:DE129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="8" ySplit="9" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="9" topLeftCell="I25" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="3.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.25" style="5" customWidth="1"/>
     <col min="3" max="4" width="7.125" style="5" customWidth="1"/>
-    <col min="5" max="6" width="7.625" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.375" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.625" style="5" customWidth="1"/>
-    <col min="9" max="109" width="3.375" style="41" customWidth="1"/>
+    <col min="9" max="109" width="3.375" style="40" customWidth="1"/>
     <col min="110" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4745,11 +4937,11 @@
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="60">
+      <c r="F1" s="59">
         <v>42665</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="4">
         <f>IF(I3&lt;&gt;DATE(YEAR(I3),MONTH(I3)+1,1)-1,MONTH(I3),"")</f>
         <v>10</v>
@@ -5165,11 +5357,11 @@
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="62">
+      <c r="F2" s="61">
         <v>42665.867199074077</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
@@ -5331,28 +5523,28 @@
       </c>
     </row>
     <row r="3" spans="1:109" ht="11.25" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="9">
@@ -5760,14 +5952,14 @@
       </c>
     </row>
     <row r="4" spans="1:109" ht="11.25" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="59"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="11">
         <f>I3</f>
         <v>42663</v>
@@ -6507,115 +6699,115 @@
       <c r="DE7" s="24"/>
     </row>
     <row r="8" spans="1:109" ht="39" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="49"/>
-      <c r="AP8" s="49"/>
-      <c r="AQ8" s="49"/>
-      <c r="AR8" s="49"/>
-      <c r="AS8" s="49"/>
-      <c r="AT8" s="49"/>
-      <c r="AU8" s="49"/>
-      <c r="AV8" s="49"/>
-      <c r="AW8" s="49"/>
-      <c r="AX8" s="49"/>
-      <c r="AY8" s="49"/>
-      <c r="AZ8" s="49"/>
-      <c r="BA8" s="49"/>
-      <c r="BB8" s="49"/>
-      <c r="BC8" s="49"/>
-      <c r="BD8" s="49"/>
-      <c r="BE8" s="49"/>
-      <c r="BF8" s="49"/>
-      <c r="BG8" s="49"/>
-      <c r="BH8" s="49"/>
-      <c r="BI8" s="49"/>
-      <c r="BJ8" s="49"/>
-      <c r="BK8" s="49"/>
-      <c r="BL8" s="49"/>
-      <c r="BM8" s="49"/>
-      <c r="BN8" s="49"/>
-      <c r="BO8" s="49"/>
-      <c r="BP8" s="49"/>
-      <c r="BQ8" s="49"/>
-      <c r="BR8" s="49"/>
-      <c r="BS8" s="49"/>
-      <c r="BT8" s="49"/>
-      <c r="BU8" s="49"/>
-      <c r="BV8" s="49"/>
-      <c r="BW8" s="49"/>
-      <c r="BX8" s="49"/>
-      <c r="BY8" s="49"/>
-      <c r="BZ8" s="49"/>
-      <c r="CA8" s="49"/>
-      <c r="CB8" s="49"/>
-      <c r="CC8" s="49"/>
-      <c r="CD8" s="49"/>
-      <c r="CE8" s="49"/>
-      <c r="CF8" s="49"/>
-      <c r="CG8" s="49"/>
-      <c r="CH8" s="49"/>
-      <c r="CI8" s="49"/>
-      <c r="CJ8" s="49"/>
-      <c r="CK8" s="49"/>
-      <c r="CL8" s="49"/>
-      <c r="CM8" s="49"/>
-      <c r="CN8" s="49"/>
-      <c r="CO8" s="49"/>
-      <c r="CP8" s="49"/>
-      <c r="CQ8" s="49"/>
-      <c r="CR8" s="49"/>
-      <c r="CS8" s="49"/>
-      <c r="CT8" s="49"/>
-      <c r="CU8" s="49"/>
-      <c r="CV8" s="49"/>
-      <c r="CW8" s="49"/>
-      <c r="CX8" s="49"/>
-      <c r="CY8" s="49"/>
-      <c r="CZ8" s="49"/>
-      <c r="DA8" s="49"/>
-      <c r="DB8" s="49"/>
-      <c r="DC8" s="49"/>
-      <c r="DD8" s="49"/>
-      <c r="DE8" s="49"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="48"/>
+      <c r="AS8" s="48"/>
+      <c r="AT8" s="48"/>
+      <c r="AU8" s="48"/>
+      <c r="AV8" s="48"/>
+      <c r="AW8" s="48"/>
+      <c r="AX8" s="48"/>
+      <c r="AY8" s="48"/>
+      <c r="AZ8" s="48"/>
+      <c r="BA8" s="48"/>
+      <c r="BB8" s="48"/>
+      <c r="BC8" s="48"/>
+      <c r="BD8" s="48"/>
+      <c r="BE8" s="48"/>
+      <c r="BF8" s="48"/>
+      <c r="BG8" s="48"/>
+      <c r="BH8" s="48"/>
+      <c r="BI8" s="48"/>
+      <c r="BJ8" s="48"/>
+      <c r="BK8" s="48"/>
+      <c r="BL8" s="48"/>
+      <c r="BM8" s="48"/>
+      <c r="BN8" s="48"/>
+      <c r="BO8" s="48"/>
+      <c r="BP8" s="48"/>
+      <c r="BQ8" s="48"/>
+      <c r="BR8" s="48"/>
+      <c r="BS8" s="48"/>
+      <c r="BT8" s="48"/>
+      <c r="BU8" s="48"/>
+      <c r="BV8" s="48"/>
+      <c r="BW8" s="48"/>
+      <c r="BX8" s="48"/>
+      <c r="BY8" s="48"/>
+      <c r="BZ8" s="48"/>
+      <c r="CA8" s="48"/>
+      <c r="CB8" s="48"/>
+      <c r="CC8" s="48"/>
+      <c r="CD8" s="48"/>
+      <c r="CE8" s="48"/>
+      <c r="CF8" s="48"/>
+      <c r="CG8" s="48"/>
+      <c r="CH8" s="48"/>
+      <c r="CI8" s="48"/>
+      <c r="CJ8" s="48"/>
+      <c r="CK8" s="48"/>
+      <c r="CL8" s="48"/>
+      <c r="CM8" s="48"/>
+      <c r="CN8" s="48"/>
+      <c r="CO8" s="48"/>
+      <c r="CP8" s="48"/>
+      <c r="CQ8" s="48"/>
+      <c r="CR8" s="48"/>
+      <c r="CS8" s="48"/>
+      <c r="CT8" s="48"/>
+      <c r="CU8" s="48"/>
+      <c r="CV8" s="48"/>
+      <c r="CW8" s="48"/>
+      <c r="CX8" s="48"/>
+      <c r="CY8" s="48"/>
+      <c r="CZ8" s="48"/>
+      <c r="DA8" s="48"/>
+      <c r="DB8" s="48"/>
+      <c r="DC8" s="48"/>
+      <c r="DD8" s="48"/>
+      <c r="DE8" s="48"/>
     </row>
     <row r="9" spans="1:109" ht="15.75" customHeight="1">
       <c r="A9" s="29"/>
@@ -6726,11 +6918,11 @@
       <c r="DB9" s="9"/>
       <c r="DC9" s="9"/>
       <c r="DD9" s="9"/>
-      <c r="DE9" s="50"/>
+      <c r="DE9" s="49"/>
     </row>
-    <row r="10" spans="1:109" ht="27" customHeight="1">
+    <row r="10" spans="1:109" ht="27" customHeight="1" thickBot="1">
       <c r="A10" s="15">
-        <f t="shared" ref="A10:A53" si="9">ROW()-ROW(№列)</f>
+        <f t="shared" ref="A10:A61" si="9">ROW()-ROW(№列)</f>
         <v>1</v>
       </c>
       <c r="B10" s="22"/>
@@ -6738,8 +6930,8 @@
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="20"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -6842,20 +7034,20 @@
       <c r="DD10" s="21"/>
       <c r="DE10" s="21"/>
     </row>
-    <row r="11" spans="1:109" ht="27" customHeight="1">
+    <row r="11" spans="1:109" ht="27" customHeight="1" thickBot="1">
       <c r="A11" s="15">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="56" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="23"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
@@ -6868,25 +7060,25 @@
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
       <c r="T11" s="24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="U11" s="24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V11" s="24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="W11" s="24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="X11" s="24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y11" s="24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z11" s="24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA11" s="24"/>
       <c r="AB11" s="24"/>
@@ -6972,20 +7164,23 @@
       <c r="DD11" s="24"/>
       <c r="DE11" s="24"/>
     </row>
-    <row r="12" spans="1:109" ht="27" customHeight="1">
+    <row r="12" spans="1:109" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="15">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="B12" s="55" t="s">
-        <v>14</v>
+      <c r="B12" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="74">
+        <f>AVERAGE(G13,G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="71"/>
       <c r="I12" s="23"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
@@ -6998,7 +7193,7 @@
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
       <c r="T12" s="24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
@@ -7090,17 +7285,20 @@
       <c r="DD12" s="24"/>
       <c r="DE12" s="24"/>
     </row>
-    <row r="13" spans="1:109" ht="27" customHeight="1">
+    <row r="13" spans="1:109" ht="27" customHeight="1" thickBot="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="56" t="s">
-        <v>21</v>
+      <c r="B13" s="55" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="74">
+        <f>AVERAGE(G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="71"/>
       <c r="I13" s="23"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
@@ -7203,16 +7401,18 @@
       <c r="DD13" s="24"/>
       <c r="DE13" s="24"/>
     </row>
-    <row r="14" spans="1:109" ht="27" customHeight="1">
+    <row r="14" spans="1:109" ht="27" customHeight="1" thickBot="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="56" t="s">
-        <v>22</v>
+      <c r="B14" s="57" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="G14" s="73">
+        <v>0</v>
+      </c>
       <c r="H14" s="19"/>
       <c r="I14" s="23"/>
       <c r="J14" s="24"/>
@@ -7316,17 +7516,20 @@
       <c r="DD14" s="24"/>
       <c r="DE14" s="24"/>
     </row>
-    <row r="15" spans="1:109" ht="27" customHeight="1">
+    <row r="15" spans="1:109" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="58" t="s">
-        <v>23</v>
+      <c r="B15" s="55" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="74">
+        <f>AVERAGE(G17,G19)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="71"/>
       <c r="I15" s="23"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -7429,17 +7632,20 @@
       <c r="DD15" s="24"/>
       <c r="DE15" s="24"/>
     </row>
-    <row r="16" spans="1:109" ht="27" customHeight="1">
+    <row r="16" spans="1:109" ht="27" customHeight="1" thickBot="1">
       <c r="A16" s="15"/>
-      <c r="B16" s="58" t="s">
-        <v>24</v>
+      <c r="B16" s="57" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="74">
+        <f>AVERAGE(G17)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="71"/>
       <c r="I16" s="23"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
@@ -7542,19 +7748,18 @@
       <c r="DD16" s="24"/>
       <c r="DE16" s="24"/>
     </row>
-    <row r="17" spans="1:109" ht="27" customHeight="1">
-      <c r="A17" s="15">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>15</v>
+    <row r="17" spans="1:109" ht="27" customHeight="1" thickBot="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="68" t="s">
+        <v>28</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="G17" s="73">
+        <v>0</v>
+      </c>
       <c r="H17" s="19"/>
       <c r="I17" s="23"/>
       <c r="J17" s="24"/>
@@ -7568,9 +7773,7 @@
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
       <c r="T17" s="24"/>
-      <c r="U17" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="U17" s="24"/>
       <c r="V17" s="24"/>
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
@@ -7660,17 +7863,20 @@
       <c r="DD17" s="24"/>
       <c r="DE17" s="24"/>
     </row>
-    <row r="18" spans="1:109" ht="27" customHeight="1">
+    <row r="18" spans="1:109" ht="27" customHeight="1" thickBot="1">
       <c r="A18" s="15"/>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="74">
+        <f>AVERAGE(G19:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="71"/>
       <c r="I18" s="23"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
@@ -7775,15 +7981,17 @@
     </row>
     <row r="19" spans="1:109" ht="27" customHeight="1">
       <c r="A19" s="15"/>
-      <c r="B19" s="56" t="s">
-        <v>22</v>
+      <c r="B19" s="68" t="s">
+        <v>29</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="73">
+        <v>0</v>
+      </c>
+      <c r="H19" s="71"/>
       <c r="I19" s="23"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -7886,17 +8094,19 @@
       <c r="DD19" s="24"/>
       <c r="DE19" s="24"/>
     </row>
-    <row r="20" spans="1:109" ht="27" customHeight="1">
+    <row r="20" spans="1:109" ht="27" customHeight="1" thickBot="1">
       <c r="A20" s="15"/>
-      <c r="B20" s="58" t="s">
-        <v>23</v>
+      <c r="B20" s="68" t="s">
+        <v>30</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="45">
+        <v>0</v>
+      </c>
+      <c r="H20" s="71"/>
       <c r="I20" s="23"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -7999,17 +8209,23 @@
       <c r="DD20" s="24"/>
       <c r="DE20" s="24"/>
     </row>
-    <row r="21" spans="1:109" ht="27" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="58" t="s">
-        <v>24</v>
+    <row r="21" spans="1:109" ht="27" customHeight="1" thickBot="1">
+      <c r="A21" s="15">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>14</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="74">
+        <f>AVERAGE(G22,G24)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="71"/>
       <c r="I21" s="23"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -8022,7 +8238,9 @@
       <c r="R21" s="24"/>
       <c r="S21" s="24"/>
       <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
+      <c r="U21" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="V21" s="24"/>
       <c r="W21" s="24"/>
       <c r="X21" s="24"/>
@@ -8112,20 +8330,20 @@
       <c r="DD21" s="24"/>
       <c r="DE21" s="24"/>
     </row>
-    <row r="22" spans="1:109" ht="27" customHeight="1">
-      <c r="A22" s="15">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
+    <row r="22" spans="1:109" ht="27" customHeight="1" thickBot="1">
+      <c r="A22" s="15"/>
       <c r="B22" s="55" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="74">
+        <f>AVERAGE(G23)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="71"/>
       <c r="I22" s="23"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -8139,9 +8357,7 @@
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
       <c r="U22" s="24"/>
-      <c r="V22" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="24"/>
       <c r="Y22" s="24"/>
@@ -8230,19 +8446,18 @@
       <c r="DD22" s="24"/>
       <c r="DE22" s="24"/>
     </row>
-    <row r="23" spans="1:109" ht="27" customHeight="1">
-      <c r="A23" s="15">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>16</v>
+    <row r="23" spans="1:109" ht="27" customHeight="1" thickBot="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="57" t="s">
+        <v>24</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="G23" s="73">
+        <v>0</v>
+      </c>
       <c r="H23" s="19"/>
       <c r="I23" s="23"/>
       <c r="J23" s="24"/>
@@ -8258,9 +8473,7 @@
       <c r="T23" s="24"/>
       <c r="U23" s="24"/>
       <c r="V23" s="24"/>
-      <c r="W23" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="W23" s="24"/>
       <c r="X23" s="24"/>
       <c r="Y23" s="24"/>
       <c r="Z23" s="24"/>
@@ -8348,20 +8561,20 @@
       <c r="DD23" s="24"/>
       <c r="DE23" s="24"/>
     </row>
-    <row r="24" spans="1:109" ht="27" customHeight="1">
-      <c r="A24" s="15">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
+    <row r="24" spans="1:109" ht="27" customHeight="1" thickBot="1">
+      <c r="A24" s="15"/>
       <c r="B24" s="55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="74">
+        <f>AVERAGE(G25,G28)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="71"/>
       <c r="I24" s="23"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -8377,9 +8590,7 @@
       <c r="U24" s="24"/>
       <c r="V24" s="24"/>
       <c r="W24" s="24"/>
-      <c r="X24" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="X24" s="24"/>
       <c r="Y24" s="24"/>
       <c r="Z24" s="24"/>
       <c r="AA24" s="24"/>
@@ -8466,17 +8677,20 @@
       <c r="DD24" s="24"/>
       <c r="DE24" s="24"/>
     </row>
-    <row r="25" spans="1:109" ht="27" customHeight="1">
+    <row r="25" spans="1:109" ht="27" customHeight="1" thickBot="1">
       <c r="A25" s="15"/>
-      <c r="B25" s="56" t="s">
-        <v>21</v>
+      <c r="B25" s="57" t="s">
+        <v>20</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="74">
+        <f>AVERAGE(G26:G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="71"/>
       <c r="I25" s="23"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
@@ -8581,14 +8795,16 @@
     </row>
     <row r="26" spans="1:109" ht="27" customHeight="1">
       <c r="A26" s="15"/>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="68" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
+      <c r="G26" s="72">
+        <v>0</v>
+      </c>
       <c r="H26" s="19"/>
       <c r="I26" s="23"/>
       <c r="J26" s="24"/>
@@ -8692,16 +8908,18 @@
       <c r="DD26" s="24"/>
       <c r="DE26" s="24"/>
     </row>
-    <row r="27" spans="1:109" ht="27" customHeight="1">
+    <row r="27" spans="1:109" ht="27" customHeight="1" thickBot="1">
       <c r="A27" s="15"/>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="68" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
+      <c r="G27" s="45">
+        <v>0</v>
+      </c>
       <c r="H27" s="19"/>
       <c r="I27" s="23"/>
       <c r="J27" s="24"/>
@@ -8805,17 +9023,20 @@
       <c r="DD27" s="24"/>
       <c r="DE27" s="24"/>
     </row>
-    <row r="28" spans="1:109" ht="27" customHeight="1">
+    <row r="28" spans="1:109" ht="27" customHeight="1" thickBot="1">
       <c r="A28" s="15"/>
-      <c r="B28" s="58" t="s">
-        <v>24</v>
+      <c r="B28" s="57" t="s">
+        <v>21</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="74">
+        <f>AVERAGE(G29:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="71"/>
       <c r="I28" s="23"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
@@ -8919,18 +9140,17 @@
       <c r="DE28" s="24"/>
     </row>
     <row r="29" spans="1:109" ht="27" customHeight="1">
-      <c r="A29" s="15">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>18</v>
+      <c r="A29" s="15"/>
+      <c r="B29" s="69" t="s">
+        <v>25</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
+      <c r="G29" s="72">
+        <v>0</v>
+      </c>
       <c r="H29" s="19"/>
       <c r="I29" s="23"/>
       <c r="J29" s="24"/>
@@ -8948,9 +9168,7 @@
       <c r="V29" s="24"/>
       <c r="W29" s="24"/>
       <c r="X29" s="24"/>
-      <c r="Y29" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y29" s="24"/>
       <c r="Z29" s="24"/>
       <c r="AA29" s="24"/>
       <c r="AB29" s="24"/>
@@ -9037,18 +9255,17 @@
       <c r="DE29" s="24"/>
     </row>
     <row r="30" spans="1:109" ht="27" customHeight="1">
-      <c r="A30" s="15">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>19</v>
+      <c r="A30" s="15"/>
+      <c r="B30" s="69" t="s">
+        <v>26</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
+      <c r="G30" s="72">
+        <v>0</v>
+      </c>
       <c r="H30" s="19"/>
       <c r="I30" s="23"/>
       <c r="J30" s="24"/>
@@ -9067,9 +9284,7 @@
       <c r="W30" s="24"/>
       <c r="X30" s="24"/>
       <c r="Y30" s="24"/>
-      <c r="Z30" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z30" s="24"/>
       <c r="AA30" s="24"/>
       <c r="AB30" s="24"/>
       <c r="AC30" s="24"/>
@@ -9159,7 +9374,9 @@
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="B31" s="22"/>
+      <c r="B31" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
@@ -9179,7 +9396,9 @@
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
       <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
+      <c r="V31" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="W31" s="24"/>
       <c r="X31" s="24"/>
       <c r="Y31" s="24"/>
@@ -9273,7 +9492,9 @@
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="B32" s="22"/>
+      <c r="B32" s="54" t="s">
+        <v>32</v>
+      </c>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
       <c r="E32" s="17"/>
@@ -9295,7 +9516,9 @@
       <c r="U32" s="24"/>
       <c r="V32" s="24"/>
       <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
+      <c r="X32" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="Y32" s="24"/>
       <c r="Z32" s="24"/>
       <c r="AA32" s="24"/>
@@ -9383,11 +9606,10 @@
       <c r="DE32" s="24"/>
     </row>
     <row r="33" spans="1:109" ht="27" customHeight="1">
-      <c r="A33" s="15">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="B33" s="22"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="55" t="s">
+        <v>18</v>
+      </c>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
@@ -9497,11 +9719,10 @@
       <c r="DE33" s="24"/>
     </row>
     <row r="34" spans="1:109" ht="27" customHeight="1">
-      <c r="A34" s="15">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="B34" s="22"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="55" t="s">
+        <v>19</v>
+      </c>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
@@ -9611,11 +9832,10 @@
       <c r="DE34" s="24"/>
     </row>
     <row r="35" spans="1:109" ht="27" customHeight="1">
-      <c r="A35" s="15">
-        <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="B35" s="22"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="57" t="s">
+        <v>20</v>
+      </c>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
@@ -9725,11 +9945,10 @@
       <c r="DE35" s="24"/>
     </row>
     <row r="36" spans="1:109" ht="27" customHeight="1">
-      <c r="A36" s="15">
-        <f t="shared" si="9"/>
-        <v>27</v>
-      </c>
-      <c r="B36" s="22"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="57" t="s">
+        <v>21</v>
+      </c>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
@@ -9843,7 +10062,9 @@
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="54" t="s">
+        <v>15</v>
+      </c>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
@@ -9866,7 +10087,9 @@
       <c r="V37" s="24"/>
       <c r="W37" s="24"/>
       <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
+      <c r="Y37" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="Z37" s="24"/>
       <c r="AA37" s="24"/>
       <c r="AB37" s="24"/>
@@ -9957,7 +10180,9 @@
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="B38" s="22"/>
+      <c r="B38" s="54" t="s">
+        <v>16</v>
+      </c>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
       <c r="E38" s="17"/>
@@ -9981,7 +10206,9 @@
       <c r="W38" s="24"/>
       <c r="X38" s="24"/>
       <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
+      <c r="Z38" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="AA38" s="24"/>
       <c r="AB38" s="24"/>
       <c r="AC38" s="24"/>
@@ -11778,7 +12005,7 @@
     </row>
     <row r="54" spans="1:109" ht="27" customHeight="1">
       <c r="A54" s="15">
-        <f t="shared" ref="A54:A85" si="10">ROW()-ROW(№列)</f>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="B54" s="22"/>
@@ -11892,7 +12119,7 @@
     </row>
     <row r="55" spans="1:109" ht="27" customHeight="1">
       <c r="A55" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="B55" s="22"/>
@@ -12006,7 +12233,7 @@
     </row>
     <row r="56" spans="1:109" ht="27" customHeight="1">
       <c r="A56" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="B56" s="22"/>
@@ -12120,7 +12347,7 @@
     </row>
     <row r="57" spans="1:109" ht="27" customHeight="1">
       <c r="A57" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="B57" s="22"/>
@@ -12234,7 +12461,7 @@
     </row>
     <row r="58" spans="1:109" ht="27" customHeight="1">
       <c r="A58" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="B58" s="22"/>
@@ -12348,7 +12575,7 @@
     </row>
     <row r="59" spans="1:109" ht="27" customHeight="1">
       <c r="A59" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="B59" s="22"/>
@@ -12462,7 +12689,7 @@
     </row>
     <row r="60" spans="1:109" ht="27" customHeight="1">
       <c r="A60" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="B60" s="22"/>
@@ -12576,7 +12803,7 @@
     </row>
     <row r="61" spans="1:109" ht="27" customHeight="1">
       <c r="A61" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="B61" s="22"/>
@@ -12690,7 +12917,7 @@
     </row>
     <row r="62" spans="1:109" ht="27" customHeight="1">
       <c r="A62" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A62:A93" si="10">ROW()-ROW(№列)</f>
         <v>53</v>
       </c>
       <c r="B62" s="22"/>
@@ -15426,7 +15653,7 @@
     </row>
     <row r="86" spans="1:109" ht="27" customHeight="1">
       <c r="A86" s="15">
-        <f t="shared" ref="A86:A121" si="11">ROW()-ROW(№列)</f>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="B86" s="22"/>
@@ -15540,7 +15767,7 @@
     </row>
     <row r="87" spans="1:109" ht="27" customHeight="1">
       <c r="A87" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="B87" s="22"/>
@@ -15654,7 +15881,7 @@
     </row>
     <row r="88" spans="1:109" ht="27" customHeight="1">
       <c r="A88" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
       <c r="B88" s="22"/>
@@ -15768,7 +15995,7 @@
     </row>
     <row r="89" spans="1:109" ht="27" customHeight="1">
       <c r="A89" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="B89" s="22"/>
@@ -15882,7 +16109,7 @@
     </row>
     <row r="90" spans="1:109" ht="27" customHeight="1">
       <c r="A90" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="B90" s="22"/>
@@ -15996,7 +16223,7 @@
     </row>
     <row r="91" spans="1:109" ht="27" customHeight="1">
       <c r="A91" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="B91" s="22"/>
@@ -16110,7 +16337,7 @@
     </row>
     <row r="92" spans="1:109" ht="27" customHeight="1">
       <c r="A92" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="B92" s="22"/>
@@ -16224,7 +16451,7 @@
     </row>
     <row r="93" spans="1:109" ht="27" customHeight="1">
       <c r="A93" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="B93" s="22"/>
@@ -16338,7 +16565,7 @@
     </row>
     <row r="94" spans="1:109" ht="27" customHeight="1">
       <c r="A94" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A94:A129" si="11">ROW()-ROW(№列)</f>
         <v>85</v>
       </c>
       <c r="B94" s="22"/>
@@ -19415,121 +19642,1033 @@
       <c r="DE120" s="24"/>
     </row>
     <row r="121" spans="1:109" ht="27" customHeight="1">
-      <c r="A121" s="25">
+      <c r="A121" s="15">
         <f t="shared" si="11"/>
         <v>112</v>
       </c>
-      <c r="B121" s="26"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="51"/>
-      <c r="E121" s="52"/>
-      <c r="F121" s="52"/>
-      <c r="G121" s="53"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="28"/>
-      <c r="K121" s="28"/>
-      <c r="L121" s="28"/>
-      <c r="M121" s="28"/>
-      <c r="N121" s="28"/>
-      <c r="O121" s="28"/>
-      <c r="P121" s="28"/>
-      <c r="Q121" s="28"/>
-      <c r="R121" s="28"/>
-      <c r="S121" s="28"/>
-      <c r="T121" s="28"/>
-      <c r="U121" s="28"/>
-      <c r="V121" s="28"/>
-      <c r="W121" s="28"/>
-      <c r="X121" s="28"/>
-      <c r="Y121" s="28"/>
-      <c r="Z121" s="28"/>
-      <c r="AA121" s="28"/>
-      <c r="AB121" s="28"/>
-      <c r="AC121" s="28"/>
-      <c r="AD121" s="28"/>
-      <c r="AE121" s="28"/>
-      <c r="AF121" s="28"/>
-      <c r="AG121" s="28"/>
-      <c r="AH121" s="28"/>
-      <c r="AI121" s="28"/>
-      <c r="AJ121" s="28"/>
-      <c r="AK121" s="28"/>
-      <c r="AL121" s="28"/>
-      <c r="AM121" s="28"/>
-      <c r="AN121" s="28"/>
-      <c r="AO121" s="28"/>
-      <c r="AP121" s="28"/>
-      <c r="AQ121" s="28"/>
-      <c r="AR121" s="28"/>
-      <c r="AS121" s="28"/>
-      <c r="AT121" s="28"/>
-      <c r="AU121" s="28"/>
-      <c r="AV121" s="28"/>
-      <c r="AW121" s="28"/>
-      <c r="AX121" s="28"/>
-      <c r="AY121" s="28"/>
-      <c r="AZ121" s="28"/>
-      <c r="BA121" s="28"/>
-      <c r="BB121" s="28"/>
-      <c r="BC121" s="28"/>
-      <c r="BD121" s="28"/>
-      <c r="BE121" s="28"/>
-      <c r="BF121" s="28"/>
-      <c r="BG121" s="28"/>
-      <c r="BH121" s="28"/>
-      <c r="BI121" s="28"/>
-      <c r="BJ121" s="28"/>
-      <c r="BK121" s="28"/>
-      <c r="BL121" s="28"/>
-      <c r="BM121" s="28"/>
-      <c r="BN121" s="28"/>
-      <c r="BO121" s="28"/>
-      <c r="BP121" s="28"/>
-      <c r="BQ121" s="28"/>
-      <c r="BR121" s="28"/>
-      <c r="BS121" s="28"/>
-      <c r="BT121" s="28"/>
-      <c r="BU121" s="28"/>
-      <c r="BV121" s="28"/>
-      <c r="BW121" s="28"/>
-      <c r="BX121" s="28"/>
-      <c r="BY121" s="28"/>
-      <c r="BZ121" s="28"/>
-      <c r="CA121" s="28"/>
-      <c r="CB121" s="28"/>
-      <c r="CC121" s="28"/>
-      <c r="CD121" s="28"/>
-      <c r="CE121" s="28"/>
-      <c r="CF121" s="28"/>
-      <c r="CG121" s="28"/>
-      <c r="CH121" s="28"/>
-      <c r="CI121" s="28"/>
-      <c r="CJ121" s="28"/>
-      <c r="CK121" s="28"/>
-      <c r="CL121" s="28"/>
-      <c r="CM121" s="28"/>
-      <c r="CN121" s="28"/>
-      <c r="CO121" s="28"/>
-      <c r="CP121" s="28"/>
-      <c r="CQ121" s="28"/>
-      <c r="CR121" s="28"/>
-      <c r="CS121" s="28"/>
-      <c r="CT121" s="28"/>
-      <c r="CU121" s="28"/>
-      <c r="CV121" s="28"/>
-      <c r="CW121" s="28"/>
-      <c r="CX121" s="28"/>
-      <c r="CY121" s="28"/>
-      <c r="CZ121" s="28"/>
-      <c r="DA121" s="28"/>
-      <c r="DB121" s="28"/>
-      <c r="DC121" s="28"/>
-      <c r="DD121" s="28"/>
-      <c r="DE121" s="28"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
+      <c r="M121" s="24"/>
+      <c r="N121" s="24"/>
+      <c r="O121" s="24"/>
+      <c r="P121" s="24"/>
+      <c r="Q121" s="24"/>
+      <c r="R121" s="24"/>
+      <c r="S121" s="24"/>
+      <c r="T121" s="24"/>
+      <c r="U121" s="24"/>
+      <c r="V121" s="24"/>
+      <c r="W121" s="24"/>
+      <c r="X121" s="24"/>
+      <c r="Y121" s="24"/>
+      <c r="Z121" s="24"/>
+      <c r="AA121" s="24"/>
+      <c r="AB121" s="24"/>
+      <c r="AC121" s="24"/>
+      <c r="AD121" s="24"/>
+      <c r="AE121" s="24"/>
+      <c r="AF121" s="24"/>
+      <c r="AG121" s="24"/>
+      <c r="AH121" s="24"/>
+      <c r="AI121" s="24"/>
+      <c r="AJ121" s="24"/>
+      <c r="AK121" s="24"/>
+      <c r="AL121" s="24"/>
+      <c r="AM121" s="24"/>
+      <c r="AN121" s="24"/>
+      <c r="AO121" s="24"/>
+      <c r="AP121" s="24"/>
+      <c r="AQ121" s="24"/>
+      <c r="AR121" s="24"/>
+      <c r="AS121" s="24"/>
+      <c r="AT121" s="24"/>
+      <c r="AU121" s="24"/>
+      <c r="AV121" s="24"/>
+      <c r="AW121" s="24"/>
+      <c r="AX121" s="24"/>
+      <c r="AY121" s="24"/>
+      <c r="AZ121" s="24"/>
+      <c r="BA121" s="24"/>
+      <c r="BB121" s="24"/>
+      <c r="BC121" s="24"/>
+      <c r="BD121" s="24"/>
+      <c r="BE121" s="24"/>
+      <c r="BF121" s="24"/>
+      <c r="BG121" s="24"/>
+      <c r="BH121" s="24"/>
+      <c r="BI121" s="24"/>
+      <c r="BJ121" s="24"/>
+      <c r="BK121" s="24"/>
+      <c r="BL121" s="24"/>
+      <c r="BM121" s="24"/>
+      <c r="BN121" s="24"/>
+      <c r="BO121" s="24"/>
+      <c r="BP121" s="24"/>
+      <c r="BQ121" s="24"/>
+      <c r="BR121" s="24"/>
+      <c r="BS121" s="24"/>
+      <c r="BT121" s="24"/>
+      <c r="BU121" s="24"/>
+      <c r="BV121" s="24"/>
+      <c r="BW121" s="24"/>
+      <c r="BX121" s="24"/>
+      <c r="BY121" s="24"/>
+      <c r="BZ121" s="24"/>
+      <c r="CA121" s="24"/>
+      <c r="CB121" s="24"/>
+      <c r="CC121" s="24"/>
+      <c r="CD121" s="24"/>
+      <c r="CE121" s="24"/>
+      <c r="CF121" s="24"/>
+      <c r="CG121" s="24"/>
+      <c r="CH121" s="24"/>
+      <c r="CI121" s="24"/>
+      <c r="CJ121" s="24"/>
+      <c r="CK121" s="24"/>
+      <c r="CL121" s="24"/>
+      <c r="CM121" s="24"/>
+      <c r="CN121" s="24"/>
+      <c r="CO121" s="24"/>
+      <c r="CP121" s="24"/>
+      <c r="CQ121" s="24"/>
+      <c r="CR121" s="24"/>
+      <c r="CS121" s="24"/>
+      <c r="CT121" s="24"/>
+      <c r="CU121" s="24"/>
+      <c r="CV121" s="24"/>
+      <c r="CW121" s="24"/>
+      <c r="CX121" s="24"/>
+      <c r="CY121" s="24"/>
+      <c r="CZ121" s="24"/>
+      <c r="DA121" s="24"/>
+      <c r="DB121" s="24"/>
+      <c r="DC121" s="24"/>
+      <c r="DD121" s="24"/>
+      <c r="DE121" s="24"/>
+    </row>
+    <row r="122" spans="1:109" ht="27" customHeight="1">
+      <c r="A122" s="15">
+        <f t="shared" si="11"/>
+        <v>113</v>
+      </c>
+      <c r="B122" s="22"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="24"/>
+      <c r="O122" s="24"/>
+      <c r="P122" s="24"/>
+      <c r="Q122" s="24"/>
+      <c r="R122" s="24"/>
+      <c r="S122" s="24"/>
+      <c r="T122" s="24"/>
+      <c r="U122" s="24"/>
+      <c r="V122" s="24"/>
+      <c r="W122" s="24"/>
+      <c r="X122" s="24"/>
+      <c r="Y122" s="24"/>
+      <c r="Z122" s="24"/>
+      <c r="AA122" s="24"/>
+      <c r="AB122" s="24"/>
+      <c r="AC122" s="24"/>
+      <c r="AD122" s="24"/>
+      <c r="AE122" s="24"/>
+      <c r="AF122" s="24"/>
+      <c r="AG122" s="24"/>
+      <c r="AH122" s="24"/>
+      <c r="AI122" s="24"/>
+      <c r="AJ122" s="24"/>
+      <c r="AK122" s="24"/>
+      <c r="AL122" s="24"/>
+      <c r="AM122" s="24"/>
+      <c r="AN122" s="24"/>
+      <c r="AO122" s="24"/>
+      <c r="AP122" s="24"/>
+      <c r="AQ122" s="24"/>
+      <c r="AR122" s="24"/>
+      <c r="AS122" s="24"/>
+      <c r="AT122" s="24"/>
+      <c r="AU122" s="24"/>
+      <c r="AV122" s="24"/>
+      <c r="AW122" s="24"/>
+      <c r="AX122" s="24"/>
+      <c r="AY122" s="24"/>
+      <c r="AZ122" s="24"/>
+      <c r="BA122" s="24"/>
+      <c r="BB122" s="24"/>
+      <c r="BC122" s="24"/>
+      <c r="BD122" s="24"/>
+      <c r="BE122" s="24"/>
+      <c r="BF122" s="24"/>
+      <c r="BG122" s="24"/>
+      <c r="BH122" s="24"/>
+      <c r="BI122" s="24"/>
+      <c r="BJ122" s="24"/>
+      <c r="BK122" s="24"/>
+      <c r="BL122" s="24"/>
+      <c r="BM122" s="24"/>
+      <c r="BN122" s="24"/>
+      <c r="BO122" s="24"/>
+      <c r="BP122" s="24"/>
+      <c r="BQ122" s="24"/>
+      <c r="BR122" s="24"/>
+      <c r="BS122" s="24"/>
+      <c r="BT122" s="24"/>
+      <c r="BU122" s="24"/>
+      <c r="BV122" s="24"/>
+      <c r="BW122" s="24"/>
+      <c r="BX122" s="24"/>
+      <c r="BY122" s="24"/>
+      <c r="BZ122" s="24"/>
+      <c r="CA122" s="24"/>
+      <c r="CB122" s="24"/>
+      <c r="CC122" s="24"/>
+      <c r="CD122" s="24"/>
+      <c r="CE122" s="24"/>
+      <c r="CF122" s="24"/>
+      <c r="CG122" s="24"/>
+      <c r="CH122" s="24"/>
+      <c r="CI122" s="24"/>
+      <c r="CJ122" s="24"/>
+      <c r="CK122" s="24"/>
+      <c r="CL122" s="24"/>
+      <c r="CM122" s="24"/>
+      <c r="CN122" s="24"/>
+      <c r="CO122" s="24"/>
+      <c r="CP122" s="24"/>
+      <c r="CQ122" s="24"/>
+      <c r="CR122" s="24"/>
+      <c r="CS122" s="24"/>
+      <c r="CT122" s="24"/>
+      <c r="CU122" s="24"/>
+      <c r="CV122" s="24"/>
+      <c r="CW122" s="24"/>
+      <c r="CX122" s="24"/>
+      <c r="CY122" s="24"/>
+      <c r="CZ122" s="24"/>
+      <c r="DA122" s="24"/>
+      <c r="DB122" s="24"/>
+      <c r="DC122" s="24"/>
+      <c r="DD122" s="24"/>
+      <c r="DE122" s="24"/>
+    </row>
+    <row r="123" spans="1:109" ht="27" customHeight="1">
+      <c r="A123" s="15">
+        <f t="shared" si="11"/>
+        <v>114</v>
+      </c>
+      <c r="B123" s="22"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="23"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
+      <c r="N123" s="24"/>
+      <c r="O123" s="24"/>
+      <c r="P123" s="24"/>
+      <c r="Q123" s="24"/>
+      <c r="R123" s="24"/>
+      <c r="S123" s="24"/>
+      <c r="T123" s="24"/>
+      <c r="U123" s="24"/>
+      <c r="V123" s="24"/>
+      <c r="W123" s="24"/>
+      <c r="X123" s="24"/>
+      <c r="Y123" s="24"/>
+      <c r="Z123" s="24"/>
+      <c r="AA123" s="24"/>
+      <c r="AB123" s="24"/>
+      <c r="AC123" s="24"/>
+      <c r="AD123" s="24"/>
+      <c r="AE123" s="24"/>
+      <c r="AF123" s="24"/>
+      <c r="AG123" s="24"/>
+      <c r="AH123" s="24"/>
+      <c r="AI123" s="24"/>
+      <c r="AJ123" s="24"/>
+      <c r="AK123" s="24"/>
+      <c r="AL123" s="24"/>
+      <c r="AM123" s="24"/>
+      <c r="AN123" s="24"/>
+      <c r="AO123" s="24"/>
+      <c r="AP123" s="24"/>
+      <c r="AQ123" s="24"/>
+      <c r="AR123" s="24"/>
+      <c r="AS123" s="24"/>
+      <c r="AT123" s="24"/>
+      <c r="AU123" s="24"/>
+      <c r="AV123" s="24"/>
+      <c r="AW123" s="24"/>
+      <c r="AX123" s="24"/>
+      <c r="AY123" s="24"/>
+      <c r="AZ123" s="24"/>
+      <c r="BA123" s="24"/>
+      <c r="BB123" s="24"/>
+      <c r="BC123" s="24"/>
+      <c r="BD123" s="24"/>
+      <c r="BE123" s="24"/>
+      <c r="BF123" s="24"/>
+      <c r="BG123" s="24"/>
+      <c r="BH123" s="24"/>
+      <c r="BI123" s="24"/>
+      <c r="BJ123" s="24"/>
+      <c r="BK123" s="24"/>
+      <c r="BL123" s="24"/>
+      <c r="BM123" s="24"/>
+      <c r="BN123" s="24"/>
+      <c r="BO123" s="24"/>
+      <c r="BP123" s="24"/>
+      <c r="BQ123" s="24"/>
+      <c r="BR123" s="24"/>
+      <c r="BS123" s="24"/>
+      <c r="BT123" s="24"/>
+      <c r="BU123" s="24"/>
+      <c r="BV123" s="24"/>
+      <c r="BW123" s="24"/>
+      <c r="BX123" s="24"/>
+      <c r="BY123" s="24"/>
+      <c r="BZ123" s="24"/>
+      <c r="CA123" s="24"/>
+      <c r="CB123" s="24"/>
+      <c r="CC123" s="24"/>
+      <c r="CD123" s="24"/>
+      <c r="CE123" s="24"/>
+      <c r="CF123" s="24"/>
+      <c r="CG123" s="24"/>
+      <c r="CH123" s="24"/>
+      <c r="CI123" s="24"/>
+      <c r="CJ123" s="24"/>
+      <c r="CK123" s="24"/>
+      <c r="CL123" s="24"/>
+      <c r="CM123" s="24"/>
+      <c r="CN123" s="24"/>
+      <c r="CO123" s="24"/>
+      <c r="CP123" s="24"/>
+      <c r="CQ123" s="24"/>
+      <c r="CR123" s="24"/>
+      <c r="CS123" s="24"/>
+      <c r="CT123" s="24"/>
+      <c r="CU123" s="24"/>
+      <c r="CV123" s="24"/>
+      <c r="CW123" s="24"/>
+      <c r="CX123" s="24"/>
+      <c r="CY123" s="24"/>
+      <c r="CZ123" s="24"/>
+      <c r="DA123" s="24"/>
+      <c r="DB123" s="24"/>
+      <c r="DC123" s="24"/>
+      <c r="DD123" s="24"/>
+      <c r="DE123" s="24"/>
+    </row>
+    <row r="124" spans="1:109" ht="27" customHeight="1">
+      <c r="A124" s="15">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="B124" s="22"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="23"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="24"/>
+      <c r="O124" s="24"/>
+      <c r="P124" s="24"/>
+      <c r="Q124" s="24"/>
+      <c r="R124" s="24"/>
+      <c r="S124" s="24"/>
+      <c r="T124" s="24"/>
+      <c r="U124" s="24"/>
+      <c r="V124" s="24"/>
+      <c r="W124" s="24"/>
+      <c r="X124" s="24"/>
+      <c r="Y124" s="24"/>
+      <c r="Z124" s="24"/>
+      <c r="AA124" s="24"/>
+      <c r="AB124" s="24"/>
+      <c r="AC124" s="24"/>
+      <c r="AD124" s="24"/>
+      <c r="AE124" s="24"/>
+      <c r="AF124" s="24"/>
+      <c r="AG124" s="24"/>
+      <c r="AH124" s="24"/>
+      <c r="AI124" s="24"/>
+      <c r="AJ124" s="24"/>
+      <c r="AK124" s="24"/>
+      <c r="AL124" s="24"/>
+      <c r="AM124" s="24"/>
+      <c r="AN124" s="24"/>
+      <c r="AO124" s="24"/>
+      <c r="AP124" s="24"/>
+      <c r="AQ124" s="24"/>
+      <c r="AR124" s="24"/>
+      <c r="AS124" s="24"/>
+      <c r="AT124" s="24"/>
+      <c r="AU124" s="24"/>
+      <c r="AV124" s="24"/>
+      <c r="AW124" s="24"/>
+      <c r="AX124" s="24"/>
+      <c r="AY124" s="24"/>
+      <c r="AZ124" s="24"/>
+      <c r="BA124" s="24"/>
+      <c r="BB124" s="24"/>
+      <c r="BC124" s="24"/>
+      <c r="BD124" s="24"/>
+      <c r="BE124" s="24"/>
+      <c r="BF124" s="24"/>
+      <c r="BG124" s="24"/>
+      <c r="BH124" s="24"/>
+      <c r="BI124" s="24"/>
+      <c r="BJ124" s="24"/>
+      <c r="BK124" s="24"/>
+      <c r="BL124" s="24"/>
+      <c r="BM124" s="24"/>
+      <c r="BN124" s="24"/>
+      <c r="BO124" s="24"/>
+      <c r="BP124" s="24"/>
+      <c r="BQ124" s="24"/>
+      <c r="BR124" s="24"/>
+      <c r="BS124" s="24"/>
+      <c r="BT124" s="24"/>
+      <c r="BU124" s="24"/>
+      <c r="BV124" s="24"/>
+      <c r="BW124" s="24"/>
+      <c r="BX124" s="24"/>
+      <c r="BY124" s="24"/>
+      <c r="BZ124" s="24"/>
+      <c r="CA124" s="24"/>
+      <c r="CB124" s="24"/>
+      <c r="CC124" s="24"/>
+      <c r="CD124" s="24"/>
+      <c r="CE124" s="24"/>
+      <c r="CF124" s="24"/>
+      <c r="CG124" s="24"/>
+      <c r="CH124" s="24"/>
+      <c r="CI124" s="24"/>
+      <c r="CJ124" s="24"/>
+      <c r="CK124" s="24"/>
+      <c r="CL124" s="24"/>
+      <c r="CM124" s="24"/>
+      <c r="CN124" s="24"/>
+      <c r="CO124" s="24"/>
+      <c r="CP124" s="24"/>
+      <c r="CQ124" s="24"/>
+      <c r="CR124" s="24"/>
+      <c r="CS124" s="24"/>
+      <c r="CT124" s="24"/>
+      <c r="CU124" s="24"/>
+      <c r="CV124" s="24"/>
+      <c r="CW124" s="24"/>
+      <c r="CX124" s="24"/>
+      <c r="CY124" s="24"/>
+      <c r="CZ124" s="24"/>
+      <c r="DA124" s="24"/>
+      <c r="DB124" s="24"/>
+      <c r="DC124" s="24"/>
+      <c r="DD124" s="24"/>
+      <c r="DE124" s="24"/>
+    </row>
+    <row r="125" spans="1:109" ht="27" customHeight="1">
+      <c r="A125" s="15">
+        <f t="shared" si="11"/>
+        <v>116</v>
+      </c>
+      <c r="B125" s="22"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="23"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
+      <c r="M125" s="24"/>
+      <c r="N125" s="24"/>
+      <c r="O125" s="24"/>
+      <c r="P125" s="24"/>
+      <c r="Q125" s="24"/>
+      <c r="R125" s="24"/>
+      <c r="S125" s="24"/>
+      <c r="T125" s="24"/>
+      <c r="U125" s="24"/>
+      <c r="V125" s="24"/>
+      <c r="W125" s="24"/>
+      <c r="X125" s="24"/>
+      <c r="Y125" s="24"/>
+      <c r="Z125" s="24"/>
+      <c r="AA125" s="24"/>
+      <c r="AB125" s="24"/>
+      <c r="AC125" s="24"/>
+      <c r="AD125" s="24"/>
+      <c r="AE125" s="24"/>
+      <c r="AF125" s="24"/>
+      <c r="AG125" s="24"/>
+      <c r="AH125" s="24"/>
+      <c r="AI125" s="24"/>
+      <c r="AJ125" s="24"/>
+      <c r="AK125" s="24"/>
+      <c r="AL125" s="24"/>
+      <c r="AM125" s="24"/>
+      <c r="AN125" s="24"/>
+      <c r="AO125" s="24"/>
+      <c r="AP125" s="24"/>
+      <c r="AQ125" s="24"/>
+      <c r="AR125" s="24"/>
+      <c r="AS125" s="24"/>
+      <c r="AT125" s="24"/>
+      <c r="AU125" s="24"/>
+      <c r="AV125" s="24"/>
+      <c r="AW125" s="24"/>
+      <c r="AX125" s="24"/>
+      <c r="AY125" s="24"/>
+      <c r="AZ125" s="24"/>
+      <c r="BA125" s="24"/>
+      <c r="BB125" s="24"/>
+      <c r="BC125" s="24"/>
+      <c r="BD125" s="24"/>
+      <c r="BE125" s="24"/>
+      <c r="BF125" s="24"/>
+      <c r="BG125" s="24"/>
+      <c r="BH125" s="24"/>
+      <c r="BI125" s="24"/>
+      <c r="BJ125" s="24"/>
+      <c r="BK125" s="24"/>
+      <c r="BL125" s="24"/>
+      <c r="BM125" s="24"/>
+      <c r="BN125" s="24"/>
+      <c r="BO125" s="24"/>
+      <c r="BP125" s="24"/>
+      <c r="BQ125" s="24"/>
+      <c r="BR125" s="24"/>
+      <c r="BS125" s="24"/>
+      <c r="BT125" s="24"/>
+      <c r="BU125" s="24"/>
+      <c r="BV125" s="24"/>
+      <c r="BW125" s="24"/>
+      <c r="BX125" s="24"/>
+      <c r="BY125" s="24"/>
+      <c r="BZ125" s="24"/>
+      <c r="CA125" s="24"/>
+      <c r="CB125" s="24"/>
+      <c r="CC125" s="24"/>
+      <c r="CD125" s="24"/>
+      <c r="CE125" s="24"/>
+      <c r="CF125" s="24"/>
+      <c r="CG125" s="24"/>
+      <c r="CH125" s="24"/>
+      <c r="CI125" s="24"/>
+      <c r="CJ125" s="24"/>
+      <c r="CK125" s="24"/>
+      <c r="CL125" s="24"/>
+      <c r="CM125" s="24"/>
+      <c r="CN125" s="24"/>
+      <c r="CO125" s="24"/>
+      <c r="CP125" s="24"/>
+      <c r="CQ125" s="24"/>
+      <c r="CR125" s="24"/>
+      <c r="CS125" s="24"/>
+      <c r="CT125" s="24"/>
+      <c r="CU125" s="24"/>
+      <c r="CV125" s="24"/>
+      <c r="CW125" s="24"/>
+      <c r="CX125" s="24"/>
+      <c r="CY125" s="24"/>
+      <c r="CZ125" s="24"/>
+      <c r="DA125" s="24"/>
+      <c r="DB125" s="24"/>
+      <c r="DC125" s="24"/>
+      <c r="DD125" s="24"/>
+      <c r="DE125" s="24"/>
+    </row>
+    <row r="126" spans="1:109" ht="27" customHeight="1">
+      <c r="A126" s="15">
+        <f t="shared" si="11"/>
+        <v>117</v>
+      </c>
+      <c r="B126" s="22"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="23"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="24"/>
+      <c r="O126" s="24"/>
+      <c r="P126" s="24"/>
+      <c r="Q126" s="24"/>
+      <c r="R126" s="24"/>
+      <c r="S126" s="24"/>
+      <c r="T126" s="24"/>
+      <c r="U126" s="24"/>
+      <c r="V126" s="24"/>
+      <c r="W126" s="24"/>
+      <c r="X126" s="24"/>
+      <c r="Y126" s="24"/>
+      <c r="Z126" s="24"/>
+      <c r="AA126" s="24"/>
+      <c r="AB126" s="24"/>
+      <c r="AC126" s="24"/>
+      <c r="AD126" s="24"/>
+      <c r="AE126" s="24"/>
+      <c r="AF126" s="24"/>
+      <c r="AG126" s="24"/>
+      <c r="AH126" s="24"/>
+      <c r="AI126" s="24"/>
+      <c r="AJ126" s="24"/>
+      <c r="AK126" s="24"/>
+      <c r="AL126" s="24"/>
+      <c r="AM126" s="24"/>
+      <c r="AN126" s="24"/>
+      <c r="AO126" s="24"/>
+      <c r="AP126" s="24"/>
+      <c r="AQ126" s="24"/>
+      <c r="AR126" s="24"/>
+      <c r="AS126" s="24"/>
+      <c r="AT126" s="24"/>
+      <c r="AU126" s="24"/>
+      <c r="AV126" s="24"/>
+      <c r="AW126" s="24"/>
+      <c r="AX126" s="24"/>
+      <c r="AY126" s="24"/>
+      <c r="AZ126" s="24"/>
+      <c r="BA126" s="24"/>
+      <c r="BB126" s="24"/>
+      <c r="BC126" s="24"/>
+      <c r="BD126" s="24"/>
+      <c r="BE126" s="24"/>
+      <c r="BF126" s="24"/>
+      <c r="BG126" s="24"/>
+      <c r="BH126" s="24"/>
+      <c r="BI126" s="24"/>
+      <c r="BJ126" s="24"/>
+      <c r="BK126" s="24"/>
+      <c r="BL126" s="24"/>
+      <c r="BM126" s="24"/>
+      <c r="BN126" s="24"/>
+      <c r="BO126" s="24"/>
+      <c r="BP126" s="24"/>
+      <c r="BQ126" s="24"/>
+      <c r="BR126" s="24"/>
+      <c r="BS126" s="24"/>
+      <c r="BT126" s="24"/>
+      <c r="BU126" s="24"/>
+      <c r="BV126" s="24"/>
+      <c r="BW126" s="24"/>
+      <c r="BX126" s="24"/>
+      <c r="BY126" s="24"/>
+      <c r="BZ126" s="24"/>
+      <c r="CA126" s="24"/>
+      <c r="CB126" s="24"/>
+      <c r="CC126" s="24"/>
+      <c r="CD126" s="24"/>
+      <c r="CE126" s="24"/>
+      <c r="CF126" s="24"/>
+      <c r="CG126" s="24"/>
+      <c r="CH126" s="24"/>
+      <c r="CI126" s="24"/>
+      <c r="CJ126" s="24"/>
+      <c r="CK126" s="24"/>
+      <c r="CL126" s="24"/>
+      <c r="CM126" s="24"/>
+      <c r="CN126" s="24"/>
+      <c r="CO126" s="24"/>
+      <c r="CP126" s="24"/>
+      <c r="CQ126" s="24"/>
+      <c r="CR126" s="24"/>
+      <c r="CS126" s="24"/>
+      <c r="CT126" s="24"/>
+      <c r="CU126" s="24"/>
+      <c r="CV126" s="24"/>
+      <c r="CW126" s="24"/>
+      <c r="CX126" s="24"/>
+      <c r="CY126" s="24"/>
+      <c r="CZ126" s="24"/>
+      <c r="DA126" s="24"/>
+      <c r="DB126" s="24"/>
+      <c r="DC126" s="24"/>
+      <c r="DD126" s="24"/>
+      <c r="DE126" s="24"/>
+    </row>
+    <row r="127" spans="1:109" ht="27" customHeight="1">
+      <c r="A127" s="15">
+        <f t="shared" si="11"/>
+        <v>118</v>
+      </c>
+      <c r="B127" s="22"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="23"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
+      <c r="M127" s="24"/>
+      <c r="N127" s="24"/>
+      <c r="O127" s="24"/>
+      <c r="P127" s="24"/>
+      <c r="Q127" s="24"/>
+      <c r="R127" s="24"/>
+      <c r="S127" s="24"/>
+      <c r="T127" s="24"/>
+      <c r="U127" s="24"/>
+      <c r="V127" s="24"/>
+      <c r="W127" s="24"/>
+      <c r="X127" s="24"/>
+      <c r="Y127" s="24"/>
+      <c r="Z127" s="24"/>
+      <c r="AA127" s="24"/>
+      <c r="AB127" s="24"/>
+      <c r="AC127" s="24"/>
+      <c r="AD127" s="24"/>
+      <c r="AE127" s="24"/>
+      <c r="AF127" s="24"/>
+      <c r="AG127" s="24"/>
+      <c r="AH127" s="24"/>
+      <c r="AI127" s="24"/>
+      <c r="AJ127" s="24"/>
+      <c r="AK127" s="24"/>
+      <c r="AL127" s="24"/>
+      <c r="AM127" s="24"/>
+      <c r="AN127" s="24"/>
+      <c r="AO127" s="24"/>
+      <c r="AP127" s="24"/>
+      <c r="AQ127" s="24"/>
+      <c r="AR127" s="24"/>
+      <c r="AS127" s="24"/>
+      <c r="AT127" s="24"/>
+      <c r="AU127" s="24"/>
+      <c r="AV127" s="24"/>
+      <c r="AW127" s="24"/>
+      <c r="AX127" s="24"/>
+      <c r="AY127" s="24"/>
+      <c r="AZ127" s="24"/>
+      <c r="BA127" s="24"/>
+      <c r="BB127" s="24"/>
+      <c r="BC127" s="24"/>
+      <c r="BD127" s="24"/>
+      <c r="BE127" s="24"/>
+      <c r="BF127" s="24"/>
+      <c r="BG127" s="24"/>
+      <c r="BH127" s="24"/>
+      <c r="BI127" s="24"/>
+      <c r="BJ127" s="24"/>
+      <c r="BK127" s="24"/>
+      <c r="BL127" s="24"/>
+      <c r="BM127" s="24"/>
+      <c r="BN127" s="24"/>
+      <c r="BO127" s="24"/>
+      <c r="BP127" s="24"/>
+      <c r="BQ127" s="24"/>
+      <c r="BR127" s="24"/>
+      <c r="BS127" s="24"/>
+      <c r="BT127" s="24"/>
+      <c r="BU127" s="24"/>
+      <c r="BV127" s="24"/>
+      <c r="BW127" s="24"/>
+      <c r="BX127" s="24"/>
+      <c r="BY127" s="24"/>
+      <c r="BZ127" s="24"/>
+      <c r="CA127" s="24"/>
+      <c r="CB127" s="24"/>
+      <c r="CC127" s="24"/>
+      <c r="CD127" s="24"/>
+      <c r="CE127" s="24"/>
+      <c r="CF127" s="24"/>
+      <c r="CG127" s="24"/>
+      <c r="CH127" s="24"/>
+      <c r="CI127" s="24"/>
+      <c r="CJ127" s="24"/>
+      <c r="CK127" s="24"/>
+      <c r="CL127" s="24"/>
+      <c r="CM127" s="24"/>
+      <c r="CN127" s="24"/>
+      <c r="CO127" s="24"/>
+      <c r="CP127" s="24"/>
+      <c r="CQ127" s="24"/>
+      <c r="CR127" s="24"/>
+      <c r="CS127" s="24"/>
+      <c r="CT127" s="24"/>
+      <c r="CU127" s="24"/>
+      <c r="CV127" s="24"/>
+      <c r="CW127" s="24"/>
+      <c r="CX127" s="24"/>
+      <c r="CY127" s="24"/>
+      <c r="CZ127" s="24"/>
+      <c r="DA127" s="24"/>
+      <c r="DB127" s="24"/>
+      <c r="DC127" s="24"/>
+      <c r="DD127" s="24"/>
+      <c r="DE127" s="24"/>
+    </row>
+    <row r="128" spans="1:109" ht="27" customHeight="1">
+      <c r="A128" s="15">
+        <f t="shared" si="11"/>
+        <v>119</v>
+      </c>
+      <c r="B128" s="22"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="23"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
+      <c r="N128" s="24"/>
+      <c r="O128" s="24"/>
+      <c r="P128" s="24"/>
+      <c r="Q128" s="24"/>
+      <c r="R128" s="24"/>
+      <c r="S128" s="24"/>
+      <c r="T128" s="24"/>
+      <c r="U128" s="24"/>
+      <c r="V128" s="24"/>
+      <c r="W128" s="24"/>
+      <c r="X128" s="24"/>
+      <c r="Y128" s="24"/>
+      <c r="Z128" s="24"/>
+      <c r="AA128" s="24"/>
+      <c r="AB128" s="24"/>
+      <c r="AC128" s="24"/>
+      <c r="AD128" s="24"/>
+      <c r="AE128" s="24"/>
+      <c r="AF128" s="24"/>
+      <c r="AG128" s="24"/>
+      <c r="AH128" s="24"/>
+      <c r="AI128" s="24"/>
+      <c r="AJ128" s="24"/>
+      <c r="AK128" s="24"/>
+      <c r="AL128" s="24"/>
+      <c r="AM128" s="24"/>
+      <c r="AN128" s="24"/>
+      <c r="AO128" s="24"/>
+      <c r="AP128" s="24"/>
+      <c r="AQ128" s="24"/>
+      <c r="AR128" s="24"/>
+      <c r="AS128" s="24"/>
+      <c r="AT128" s="24"/>
+      <c r="AU128" s="24"/>
+      <c r="AV128" s="24"/>
+      <c r="AW128" s="24"/>
+      <c r="AX128" s="24"/>
+      <c r="AY128" s="24"/>
+      <c r="AZ128" s="24"/>
+      <c r="BA128" s="24"/>
+      <c r="BB128" s="24"/>
+      <c r="BC128" s="24"/>
+      <c r="BD128" s="24"/>
+      <c r="BE128" s="24"/>
+      <c r="BF128" s="24"/>
+      <c r="BG128" s="24"/>
+      <c r="BH128" s="24"/>
+      <c r="BI128" s="24"/>
+      <c r="BJ128" s="24"/>
+      <c r="BK128" s="24"/>
+      <c r="BL128" s="24"/>
+      <c r="BM128" s="24"/>
+      <c r="BN128" s="24"/>
+      <c r="BO128" s="24"/>
+      <c r="BP128" s="24"/>
+      <c r="BQ128" s="24"/>
+      <c r="BR128" s="24"/>
+      <c r="BS128" s="24"/>
+      <c r="BT128" s="24"/>
+      <c r="BU128" s="24"/>
+      <c r="BV128" s="24"/>
+      <c r="BW128" s="24"/>
+      <c r="BX128" s="24"/>
+      <c r="BY128" s="24"/>
+      <c r="BZ128" s="24"/>
+      <c r="CA128" s="24"/>
+      <c r="CB128" s="24"/>
+      <c r="CC128" s="24"/>
+      <c r="CD128" s="24"/>
+      <c r="CE128" s="24"/>
+      <c r="CF128" s="24"/>
+      <c r="CG128" s="24"/>
+      <c r="CH128" s="24"/>
+      <c r="CI128" s="24"/>
+      <c r="CJ128" s="24"/>
+      <c r="CK128" s="24"/>
+      <c r="CL128" s="24"/>
+      <c r="CM128" s="24"/>
+      <c r="CN128" s="24"/>
+      <c r="CO128" s="24"/>
+      <c r="CP128" s="24"/>
+      <c r="CQ128" s="24"/>
+      <c r="CR128" s="24"/>
+      <c r="CS128" s="24"/>
+      <c r="CT128" s="24"/>
+      <c r="CU128" s="24"/>
+      <c r="CV128" s="24"/>
+      <c r="CW128" s="24"/>
+      <c r="CX128" s="24"/>
+      <c r="CY128" s="24"/>
+      <c r="CZ128" s="24"/>
+      <c r="DA128" s="24"/>
+      <c r="DB128" s="24"/>
+      <c r="DC128" s="24"/>
+      <c r="DD128" s="24"/>
+      <c r="DE128" s="24"/>
+    </row>
+    <row r="129" spans="1:109" ht="27" customHeight="1">
+      <c r="A129" s="25">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="B129" s="26"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="50"/>
+      <c r="E129" s="51"/>
+      <c r="F129" s="51"/>
+      <c r="G129" s="52"/>
+      <c r="H129" s="53"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="28"/>
+      <c r="L129" s="28"/>
+      <c r="M129" s="28"/>
+      <c r="N129" s="28"/>
+      <c r="O129" s="28"/>
+      <c r="P129" s="28"/>
+      <c r="Q129" s="28"/>
+      <c r="R129" s="28"/>
+      <c r="S129" s="28"/>
+      <c r="T129" s="28"/>
+      <c r="U129" s="28"/>
+      <c r="V129" s="28"/>
+      <c r="W129" s="28"/>
+      <c r="X129" s="28"/>
+      <c r="Y129" s="28"/>
+      <c r="Z129" s="28"/>
+      <c r="AA129" s="28"/>
+      <c r="AB129" s="28"/>
+      <c r="AC129" s="28"/>
+      <c r="AD129" s="28"/>
+      <c r="AE129" s="28"/>
+      <c r="AF129" s="28"/>
+      <c r="AG129" s="28"/>
+      <c r="AH129" s="28"/>
+      <c r="AI129" s="28"/>
+      <c r="AJ129" s="28"/>
+      <c r="AK129" s="28"/>
+      <c r="AL129" s="28"/>
+      <c r="AM129" s="28"/>
+      <c r="AN129" s="28"/>
+      <c r="AO129" s="28"/>
+      <c r="AP129" s="28"/>
+      <c r="AQ129" s="28"/>
+      <c r="AR129" s="28"/>
+      <c r="AS129" s="28"/>
+      <c r="AT129" s="28"/>
+      <c r="AU129" s="28"/>
+      <c r="AV129" s="28"/>
+      <c r="AW129" s="28"/>
+      <c r="AX129" s="28"/>
+      <c r="AY129" s="28"/>
+      <c r="AZ129" s="28"/>
+      <c r="BA129" s="28"/>
+      <c r="BB129" s="28"/>
+      <c r="BC129" s="28"/>
+      <c r="BD129" s="28"/>
+      <c r="BE129" s="28"/>
+      <c r="BF129" s="28"/>
+      <c r="BG129" s="28"/>
+      <c r="BH129" s="28"/>
+      <c r="BI129" s="28"/>
+      <c r="BJ129" s="28"/>
+      <c r="BK129" s="28"/>
+      <c r="BL129" s="28"/>
+      <c r="BM129" s="28"/>
+      <c r="BN129" s="28"/>
+      <c r="BO129" s="28"/>
+      <c r="BP129" s="28"/>
+      <c r="BQ129" s="28"/>
+      <c r="BR129" s="28"/>
+      <c r="BS129" s="28"/>
+      <c r="BT129" s="28"/>
+      <c r="BU129" s="28"/>
+      <c r="BV129" s="28"/>
+      <c r="BW129" s="28"/>
+      <c r="BX129" s="28"/>
+      <c r="BY129" s="28"/>
+      <c r="BZ129" s="28"/>
+      <c r="CA129" s="28"/>
+      <c r="CB129" s="28"/>
+      <c r="CC129" s="28"/>
+      <c r="CD129" s="28"/>
+      <c r="CE129" s="28"/>
+      <c r="CF129" s="28"/>
+      <c r="CG129" s="28"/>
+      <c r="CH129" s="28"/>
+      <c r="CI129" s="28"/>
+      <c r="CJ129" s="28"/>
+      <c r="CK129" s="28"/>
+      <c r="CL129" s="28"/>
+      <c r="CM129" s="28"/>
+      <c r="CN129" s="28"/>
+      <c r="CO129" s="28"/>
+      <c r="CP129" s="28"/>
+      <c r="CQ129" s="28"/>
+      <c r="CR129" s="28"/>
+      <c r="CS129" s="28"/>
+      <c r="CT129" s="28"/>
+      <c r="CU129" s="28"/>
+      <c r="CV129" s="28"/>
+      <c r="CW129" s="28"/>
+      <c r="CX129" s="28"/>
+      <c r="CY129" s="28"/>
+      <c r="CZ129" s="28"/>
+      <c r="DA129" s="28"/>
+      <c r="DB129" s="28"/>
+      <c r="DC129" s="28"/>
+      <c r="DD129" s="28"/>
+      <c r="DE129" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:DE121"/>
+  <autoFilter ref="A9:DE129"/>
   <dataConsolidate/>
   <mergeCells count="10">
     <mergeCell ref="H3:H4"/>
@@ -19544,7 +20683,7 @@
     <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="A5:H8 A10:H30">
+  <conditionalFormatting sqref="A5:H8 A10:H38">
     <cfRule type="expression" dxfId="503" priority="798" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -19557,7 +20696,7 @@
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J8 I10:J11 I12:DE121">
+  <conditionalFormatting sqref="I5:J8 I10:J11 I12:DE129">
     <cfRule type="expression" dxfId="500" priority="801" stopIfTrue="1">
       <formula>ISBLANK(I$2)=FALSE</formula>
     </cfRule>
@@ -19576,7 +20715,7 @@
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:H121">
+  <conditionalFormatting sqref="A39:H129">
     <cfRule type="expression" dxfId="495" priority="794" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>

--- a/GantExcel/未来創造展_ガントチャート/02_各画面.xlsx
+++ b/GantExcel/未来創造展_ガントチャート/02_各画面.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t>報告日：</t>
     <rPh sb="0" eb="2">
@@ -263,6 +263,17 @@
     <t>リザルト : エアライド風に（完コピ）</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>wiki(α版)</t>
+    <rPh sb="5" eb="7">
+      <t>アルファバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://noovertime.sakura.ne.jp/?%E4%BB%95%E6%A7%98%E3%81%AB%E3%81%A4%E3%81%84%E3%81%A6/%CE%B1%E4%BB%95%E6%A7%98%E6%9B%B8</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -276,7 +287,7 @@
     <numFmt numFmtId="180" formatCode="#0.0&quot;日&quot;"/>
     <numFmt numFmtId="181" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +335,15 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -751,7 +771,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,8 +780,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,6 +957,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,38 +1011,18 @@
     <xf numFmtId="9" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2"/>
     <cellStyle name="標準_TimeLine" xfId="1"/>
     <cellStyle name="標準_静岡3S019600-管理-003【関西ホスト移設スケジュール】 (version 1)" xfId="3"/>
   </cellStyles>
-  <dxfs count="506">
+  <dxfs count="505">
     <dxf>
       <fill>
         <patternFill>
@@ -1006,6 +1033,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor indexed="45"/>
         </patternFill>
       </fill>
@@ -4514,20 +4548,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="27"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4914,7 +4934,7 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4937,11 +4957,11 @@
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="59">
+      <c r="F1" s="67">
         <v>42665</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="4">
         <f>IF(I3&lt;&gt;DATE(YEAR(I3),MONTH(I3)+1,1)-1,MONTH(I3),"")</f>
         <v>10</v>
@@ -5357,11 +5377,11 @@
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="69">
         <v>42665.867199074077</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
@@ -5523,28 +5543,28 @@
       </c>
     </row>
     <row r="3" spans="1:109" ht="11.25" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="66" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="9">
@@ -5952,14 +5972,14 @@
       </c>
     </row>
     <row r="4" spans="1:109" ht="11.25" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="58"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="11">
         <f>I3</f>
         <v>42663</v>
@@ -6478,7 +6498,9 @@
     </row>
     <row r="6" spans="1:109" ht="39" customHeight="1">
       <c r="A6" s="15"/>
-      <c r="B6" s="22"/>
+      <c r="B6" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
@@ -6589,7 +6611,9 @@
     </row>
     <row r="7" spans="1:109" ht="39" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="22"/>
+      <c r="B7" s="76" t="s">
+        <v>34</v>
+      </c>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
@@ -6930,7 +6954,7 @@
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
-      <c r="G10" s="75"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="37"/>
       <c r="I10" s="20"/>
       <c r="J10" s="21"/>
@@ -7045,9 +7069,9 @@
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="71"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="61"/>
       <c r="I11" s="23"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
@@ -7175,12 +7199,12 @@
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="74">
+      <c r="F12" s="60"/>
+      <c r="G12" s="64">
         <f>AVERAGE(G13,G15)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="71"/>
+      <c r="H12" s="61"/>
       <c r="I12" s="23"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
@@ -7293,12 +7317,12 @@
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="74">
+      <c r="F13" s="60"/>
+      <c r="G13" s="64">
         <f>AVERAGE(G14)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="71"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="23"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
@@ -7410,7 +7434,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="73">
+      <c r="G14" s="63">
         <v>0</v>
       </c>
       <c r="H14" s="19"/>
@@ -7524,12 +7548,12 @@
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="74">
+      <c r="F15" s="60"/>
+      <c r="G15" s="64">
         <f>AVERAGE(G17,G19)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="71"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="23"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -7640,12 +7664,12 @@
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="74">
+      <c r="F16" s="60"/>
+      <c r="G16" s="64">
         <f>AVERAGE(G17)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="71"/>
+      <c r="H16" s="61"/>
       <c r="I16" s="23"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
@@ -7750,14 +7774,14 @@
     </row>
     <row r="17" spans="1:109" ht="27" customHeight="1" thickBot="1">
       <c r="A17" s="15"/>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="58" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="73">
+      <c r="G17" s="63">
         <v>0</v>
       </c>
       <c r="H17" s="19"/>
@@ -7871,12 +7895,12 @@
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="74">
+      <c r="F18" s="60"/>
+      <c r="G18" s="64">
         <f>AVERAGE(G19:G20)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="71"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="23"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
@@ -7981,17 +8005,17 @@
     </row>
     <row r="19" spans="1:109" ht="27" customHeight="1">
       <c r="A19" s="15"/>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="58" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="73">
+      <c r="F19" s="60"/>
+      <c r="G19" s="63">
         <v>0</v>
       </c>
-      <c r="H19" s="71"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="23"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -8096,17 +8120,17 @@
     </row>
     <row r="20" spans="1:109" ht="27" customHeight="1" thickBot="1">
       <c r="A20" s="15"/>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="70"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="45">
         <v>0</v>
       </c>
-      <c r="H20" s="71"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="23"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -8220,12 +8244,12 @@
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="74">
+      <c r="F21" s="60"/>
+      <c r="G21" s="64">
         <f>AVERAGE(G22,G24)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="71"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="23"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -8338,12 +8362,12 @@
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="74">
+      <c r="F22" s="60"/>
+      <c r="G22" s="64">
         <f>AVERAGE(G23)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="71"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="23"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -8455,7 +8479,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="73">
+      <c r="G23" s="63">
         <v>0</v>
       </c>
       <c r="H23" s="19"/>
@@ -8569,12 +8593,12 @@
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="74">
+      <c r="F24" s="60"/>
+      <c r="G24" s="64">
         <f>AVERAGE(G25,G28)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="71"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="23"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -8685,12 +8709,12 @@
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="74">
+      <c r="F25" s="60"/>
+      <c r="G25" s="64">
         <f>AVERAGE(G26:G27)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="71"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="23"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
@@ -8795,14 +8819,14 @@
     </row>
     <row r="26" spans="1:109" ht="27" customHeight="1">
       <c r="A26" s="15"/>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="58" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="72">
+      <c r="G26" s="62">
         <v>0</v>
       </c>
       <c r="H26" s="19"/>
@@ -8910,7 +8934,7 @@
     </row>
     <row r="27" spans="1:109" ht="27" customHeight="1" thickBot="1">
       <c r="A27" s="15"/>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="58" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="15"/>
@@ -9031,12 +9055,12 @@
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="74">
+      <c r="F28" s="60"/>
+      <c r="G28" s="64">
         <f>AVERAGE(G29:G30)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="71"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="23"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
@@ -9141,14 +9165,14 @@
     </row>
     <row r="29" spans="1:109" ht="27" customHeight="1">
       <c r="A29" s="15"/>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="59" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="72">
+      <c r="G29" s="62">
         <v>0</v>
       </c>
       <c r="H29" s="19"/>
@@ -9256,14 +9280,14 @@
     </row>
     <row r="30" spans="1:109" ht="27" customHeight="1">
       <c r="A30" s="15"/>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="59" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="72">
+      <c r="G30" s="62">
         <v>0</v>
       </c>
       <c r="H30" s="19"/>
@@ -20683,1926 +20707,1934 @@
     <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="A5:H8 A10:H38">
-    <cfRule type="expression" dxfId="503" priority="798" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:H5 A10:H38 A8:H8 A6:A7 C6:H7">
+    <cfRule type="expression" dxfId="504" priority="799" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J4 I4">
-    <cfRule type="expression" dxfId="502" priority="799" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="800" stopIfTrue="1">
       <formula>ISBLANK(I$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="800" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="801" stopIfTrue="1">
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J8 I10:J11 I12:DE129">
-    <cfRule type="expression" dxfId="500" priority="801" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="802" stopIfTrue="1">
       <formula>ISBLANK(I$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="802" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="803" stopIfTrue="1">
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="803" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="804" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="497" priority="804" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="805" stopIfTrue="1">
       <formula>ISBLANK(I$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="805" stopIfTrue="1">
+    <cfRule type="expression" dxfId="497" priority="806" stopIfTrue="1">
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:H129">
-    <cfRule type="expression" dxfId="495" priority="794" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="795" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K4">
-    <cfRule type="expression" dxfId="494" priority="789" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="790" stopIfTrue="1">
       <formula>ISBLANK(K$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="790" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="791" stopIfTrue="1">
       <formula>OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K8 K10:K11">
-    <cfRule type="expression" dxfId="492" priority="791" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="792" stopIfTrue="1">
       <formula>ISBLANK(K$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="792" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="793" stopIfTrue="1">
       <formula>OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="793" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="794" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L4">
-    <cfRule type="expression" dxfId="489" priority="781" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="782" stopIfTrue="1">
       <formula>ISBLANK(L$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="782" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="783" stopIfTrue="1">
       <formula>OR(WEEKDAY(L$3)=1,WEEKDAY(L$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L8 L10:L11">
-    <cfRule type="expression" dxfId="487" priority="783" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="784" stopIfTrue="1">
       <formula>ISBLANK(L$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="784" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="785" stopIfTrue="1">
       <formula>OR(WEEKDAY(L$3)=1,WEEKDAY(L$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="785" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="786" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M4">
-    <cfRule type="expression" dxfId="484" priority="773" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="774" stopIfTrue="1">
       <formula>ISBLANK(M$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="774" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="775" stopIfTrue="1">
       <formula>OR(WEEKDAY(M$3)=1,WEEKDAY(M$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M8 M10:M11">
-    <cfRule type="expression" dxfId="482" priority="775" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="776" stopIfTrue="1">
       <formula>ISBLANK(M$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="776" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="777" stopIfTrue="1">
       <formula>OR(WEEKDAY(M$3)=1,WEEKDAY(M$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="777" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="778" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N4">
-    <cfRule type="expression" dxfId="479" priority="765" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="766" stopIfTrue="1">
       <formula>ISBLANK(N$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="766" stopIfTrue="1">
+    <cfRule type="expression" dxfId="479" priority="767" stopIfTrue="1">
       <formula>OR(WEEKDAY(N$3)=1,WEEKDAY(N$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N8 N10:N11">
-    <cfRule type="expression" dxfId="477" priority="767" stopIfTrue="1">
+    <cfRule type="expression" dxfId="478" priority="768" stopIfTrue="1">
       <formula>ISBLANK(N$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="768" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="769" stopIfTrue="1">
       <formula>OR(WEEKDAY(N$3)=1,WEEKDAY(N$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="769" stopIfTrue="1">
+    <cfRule type="expression" dxfId="476" priority="770" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O4">
-    <cfRule type="expression" dxfId="474" priority="757" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="758" stopIfTrue="1">
       <formula>ISBLANK(O$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="758" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="759" stopIfTrue="1">
       <formula>OR(WEEKDAY(O$3)=1,WEEKDAY(O$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:O8 O10:O11">
-    <cfRule type="expression" dxfId="472" priority="759" stopIfTrue="1">
+    <cfRule type="expression" dxfId="473" priority="760" stopIfTrue="1">
       <formula>ISBLANK(O$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="760" stopIfTrue="1">
+    <cfRule type="expression" dxfId="472" priority="761" stopIfTrue="1">
       <formula>OR(WEEKDAY(O$3)=1,WEEKDAY(O$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="761" stopIfTrue="1">
+    <cfRule type="expression" dxfId="471" priority="762" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P4">
-    <cfRule type="expression" dxfId="469" priority="749" stopIfTrue="1">
+    <cfRule type="expression" dxfId="470" priority="750" stopIfTrue="1">
       <formula>ISBLANK(P$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="750" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="751" stopIfTrue="1">
       <formula>OR(WEEKDAY(P$3)=1,WEEKDAY(P$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5:P8 P10:P11">
-    <cfRule type="expression" dxfId="467" priority="751" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="752" stopIfTrue="1">
       <formula>ISBLANK(P$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="752" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="753" stopIfTrue="1">
       <formula>OR(WEEKDAY(P$3)=1,WEEKDAY(P$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="753" stopIfTrue="1">
+    <cfRule type="expression" dxfId="466" priority="754" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q4">
-    <cfRule type="expression" dxfId="464" priority="741" stopIfTrue="1">
+    <cfRule type="expression" dxfId="465" priority="742" stopIfTrue="1">
       <formula>ISBLANK(Q$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="742" stopIfTrue="1">
+    <cfRule type="expression" dxfId="464" priority="743" stopIfTrue="1">
       <formula>OR(WEEKDAY(Q$3)=1,WEEKDAY(Q$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:Q8 Q10:Q11">
-    <cfRule type="expression" dxfId="462" priority="743" stopIfTrue="1">
+    <cfRule type="expression" dxfId="463" priority="744" stopIfTrue="1">
       <formula>ISBLANK(Q$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="744" stopIfTrue="1">
+    <cfRule type="expression" dxfId="462" priority="745" stopIfTrue="1">
       <formula>OR(WEEKDAY(Q$3)=1,WEEKDAY(Q$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="745" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="746" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R4">
-    <cfRule type="expression" dxfId="459" priority="733" stopIfTrue="1">
+    <cfRule type="expression" dxfId="460" priority="734" stopIfTrue="1">
       <formula>ISBLANK(R$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="734" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="735" stopIfTrue="1">
       <formula>OR(WEEKDAY(R$3)=1,WEEKDAY(R$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:R8 R10:R11">
-    <cfRule type="expression" dxfId="457" priority="735" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="736" stopIfTrue="1">
       <formula>ISBLANK(R$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="736" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="737" stopIfTrue="1">
       <formula>OR(WEEKDAY(R$3)=1,WEEKDAY(R$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="737" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="738" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S4">
-    <cfRule type="expression" dxfId="454" priority="725" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="726" stopIfTrue="1">
       <formula>ISBLANK(S$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="726" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="727" stopIfTrue="1">
       <formula>OR(WEEKDAY(S$3)=1,WEEKDAY(S$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S8 S10:S11">
-    <cfRule type="expression" dxfId="452" priority="727" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="728" stopIfTrue="1">
       <formula>ISBLANK(S$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="728" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="729" stopIfTrue="1">
       <formula>OR(WEEKDAY(S$3)=1,WEEKDAY(S$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="729" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="730" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T4">
-    <cfRule type="expression" dxfId="449" priority="717" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="718" stopIfTrue="1">
       <formula>ISBLANK(T$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="718" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="719" stopIfTrue="1">
       <formula>OR(WEEKDAY(T$3)=1,WEEKDAY(T$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:T8 T10:T11">
-    <cfRule type="expression" dxfId="447" priority="719" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="720" stopIfTrue="1">
       <formula>ISBLANK(T$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="720" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="721" stopIfTrue="1">
       <formula>OR(WEEKDAY(T$3)=1,WEEKDAY(T$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="721" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="722" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U4">
-    <cfRule type="expression" dxfId="444" priority="709" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="710" stopIfTrue="1">
       <formula>ISBLANK(U$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="710" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="711" stopIfTrue="1">
       <formula>OR(WEEKDAY(U$3)=1,WEEKDAY(U$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U8 U10:U11">
-    <cfRule type="expression" dxfId="442" priority="711" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="712" stopIfTrue="1">
       <formula>ISBLANK(U$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="712" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="713" stopIfTrue="1">
       <formula>OR(WEEKDAY(U$3)=1,WEEKDAY(U$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="713" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="714" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V4">
-    <cfRule type="expression" dxfId="439" priority="701" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="702" stopIfTrue="1">
       <formula>ISBLANK(V$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="702" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="703" stopIfTrue="1">
       <formula>OR(WEEKDAY(V$3)=1,WEEKDAY(V$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:V8 V10:V11">
-    <cfRule type="expression" dxfId="437" priority="703" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="704" stopIfTrue="1">
       <formula>ISBLANK(V$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="704" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="705" stopIfTrue="1">
       <formula>OR(WEEKDAY(V$3)=1,WEEKDAY(V$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="706" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W4">
-    <cfRule type="expression" dxfId="434" priority="693" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="694" stopIfTrue="1">
       <formula>ISBLANK(W$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="694" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="695" stopIfTrue="1">
       <formula>OR(WEEKDAY(W$3)=1,WEEKDAY(W$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:W8 W10:W11">
-    <cfRule type="expression" dxfId="432" priority="695" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="696" stopIfTrue="1">
       <formula>ISBLANK(W$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="696" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="697" stopIfTrue="1">
       <formula>OR(WEEKDAY(W$3)=1,WEEKDAY(W$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="697" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="698" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X4">
-    <cfRule type="expression" dxfId="429" priority="685" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="686" stopIfTrue="1">
       <formula>ISBLANK(X$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="686" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="687" stopIfTrue="1">
       <formula>OR(WEEKDAY(X$3)=1,WEEKDAY(X$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5:X8 X10:X11">
-    <cfRule type="expression" dxfId="427" priority="687" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="688" stopIfTrue="1">
       <formula>ISBLANK(X$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="688" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="689" stopIfTrue="1">
       <formula>OR(WEEKDAY(X$3)=1,WEEKDAY(X$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="689" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="690" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y4">
-    <cfRule type="expression" dxfId="424" priority="677" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="678" stopIfTrue="1">
       <formula>ISBLANK(Y$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="678" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="679" stopIfTrue="1">
       <formula>OR(WEEKDAY(Y$3)=1,WEEKDAY(Y$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:Y8 Y10:Y11">
-    <cfRule type="expression" dxfId="422" priority="679" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="680" stopIfTrue="1">
       <formula>ISBLANK(Y$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="680" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="681" stopIfTrue="1">
       <formula>OR(WEEKDAY(Y$3)=1,WEEKDAY(Y$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="681" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="682" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z4">
-    <cfRule type="expression" dxfId="419" priority="669" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="670" stopIfTrue="1">
       <formula>ISBLANK(Z$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="670" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="671" stopIfTrue="1">
       <formula>OR(WEEKDAY(Z$3)=1,WEEKDAY(Z$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:Z8 Z10:Z11">
-    <cfRule type="expression" dxfId="417" priority="671" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="672" stopIfTrue="1">
       <formula>ISBLANK(Z$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="672" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="673" stopIfTrue="1">
       <formula>OR(WEEKDAY(Z$3)=1,WEEKDAY(Z$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="673" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="674" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA4">
-    <cfRule type="expression" dxfId="414" priority="661" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="662" stopIfTrue="1">
       <formula>ISBLANK(AA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="662" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="663" stopIfTrue="1">
       <formula>OR(WEEKDAY(AA$3)=1,WEEKDAY(AA$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA8 AA10:AA11">
-    <cfRule type="expression" dxfId="412" priority="663" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="664" stopIfTrue="1">
       <formula>ISBLANK(AA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="664" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="665" stopIfTrue="1">
       <formula>OR(WEEKDAY(AA$3)=1,WEEKDAY(AA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="665" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="666" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB4">
-    <cfRule type="expression" dxfId="409" priority="653" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="654" stopIfTrue="1">
       <formula>ISBLANK(AB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="654" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="655" stopIfTrue="1">
       <formula>OR(WEEKDAY(AB$3)=1,WEEKDAY(AB$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB8 AB10:AB11">
-    <cfRule type="expression" dxfId="407" priority="655" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="656" stopIfTrue="1">
       <formula>ISBLANK(AB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="656" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="657" stopIfTrue="1">
       <formula>OR(WEEKDAY(AB$3)=1,WEEKDAY(AB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="657" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="658" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AC4">
-    <cfRule type="expression" dxfId="404" priority="645" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="646" stopIfTrue="1">
       <formula>ISBLANK(AC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="646" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="647" stopIfTrue="1">
       <formula>OR(WEEKDAY(AC$3)=1,WEEKDAY(AC$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5:AC8 AC10:AC11">
-    <cfRule type="expression" dxfId="402" priority="647" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="648" stopIfTrue="1">
       <formula>ISBLANK(AC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="648" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="649" stopIfTrue="1">
       <formula>OR(WEEKDAY(AC$3)=1,WEEKDAY(AC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="649" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="650" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD4">
-    <cfRule type="expression" dxfId="399" priority="637" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="638" stopIfTrue="1">
       <formula>ISBLANK(AD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="638" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="639" stopIfTrue="1">
       <formula>OR(WEEKDAY(AD$3)=1,WEEKDAY(AD$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5:AD8 AD10:AD11">
-    <cfRule type="expression" dxfId="397" priority="639" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="640" stopIfTrue="1">
       <formula>ISBLANK(AD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="640" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="641" stopIfTrue="1">
       <formula>OR(WEEKDAY(AD$3)=1,WEEKDAY(AD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="641" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="642" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE4">
-    <cfRule type="expression" dxfId="394" priority="629" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="630" stopIfTrue="1">
       <formula>ISBLANK(AE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="630" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="631" stopIfTrue="1">
       <formula>OR(WEEKDAY(AE$3)=1,WEEKDAY(AE$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AE8 AE10:AE11">
-    <cfRule type="expression" dxfId="392" priority="631" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="632" stopIfTrue="1">
       <formula>ISBLANK(AE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="632" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="633" stopIfTrue="1">
       <formula>OR(WEEKDAY(AE$3)=1,WEEKDAY(AE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="633" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="634" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AF4">
-    <cfRule type="expression" dxfId="389" priority="621" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="622" stopIfTrue="1">
       <formula>ISBLANK(AF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="622" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="623" stopIfTrue="1">
       <formula>OR(WEEKDAY(AF$3)=1,WEEKDAY(AF$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AF8 AF10:AF11">
-    <cfRule type="expression" dxfId="387" priority="623" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="624" stopIfTrue="1">
       <formula>ISBLANK(AF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="624" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="625" stopIfTrue="1">
       <formula>OR(WEEKDAY(AF$3)=1,WEEKDAY(AF$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="625" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="626" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AG4">
-    <cfRule type="expression" dxfId="384" priority="613" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="614" stopIfTrue="1">
       <formula>ISBLANK(AG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="614" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="615" stopIfTrue="1">
       <formula>OR(WEEKDAY(AG$3)=1,WEEKDAY(AG$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AG8 AG10:AG11">
-    <cfRule type="expression" dxfId="382" priority="615" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="616" stopIfTrue="1">
       <formula>ISBLANK(AG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="616" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="617" stopIfTrue="1">
       <formula>OR(WEEKDAY(AG$3)=1,WEEKDAY(AG$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="617" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="618" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3:AH4">
-    <cfRule type="expression" dxfId="379" priority="605" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="606" stopIfTrue="1">
       <formula>ISBLANK(AH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="606" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="607" stopIfTrue="1">
       <formula>OR(WEEKDAY(AH$3)=1,WEEKDAY(AH$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH5:AH8 AH10:AH11">
-    <cfRule type="expression" dxfId="377" priority="607" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="608" stopIfTrue="1">
       <formula>ISBLANK(AH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="608" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="609" stopIfTrue="1">
       <formula>OR(WEEKDAY(AH$3)=1,WEEKDAY(AH$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="609" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="610" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3:AI4">
-    <cfRule type="expression" dxfId="374" priority="597" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="598" stopIfTrue="1">
       <formula>ISBLANK(AI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="598" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="599" stopIfTrue="1">
       <formula>OR(WEEKDAY(AI$3)=1,WEEKDAY(AI$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI5:AI8 AI10:AI11">
-    <cfRule type="expression" dxfId="372" priority="599" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="600" stopIfTrue="1">
       <formula>ISBLANK(AI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="600" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="601" stopIfTrue="1">
       <formula>OR(WEEKDAY(AI$3)=1,WEEKDAY(AI$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="601" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="602" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AJ4">
-    <cfRule type="expression" dxfId="369" priority="589" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="590" stopIfTrue="1">
       <formula>ISBLANK(AJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="590" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="591" stopIfTrue="1">
       <formula>OR(WEEKDAY(AJ$3)=1,WEEKDAY(AJ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ5:AJ8 AJ10:AJ11">
-    <cfRule type="expression" dxfId="367" priority="591" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="592" stopIfTrue="1">
       <formula>ISBLANK(AJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="592" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="593" stopIfTrue="1">
       <formula>OR(WEEKDAY(AJ$3)=1,WEEKDAY(AJ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="593" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="594" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK3:AK4">
-    <cfRule type="expression" dxfId="364" priority="581" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="582" stopIfTrue="1">
       <formula>ISBLANK(AK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="582" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="583" stopIfTrue="1">
       <formula>OR(WEEKDAY(AK$3)=1,WEEKDAY(AK$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK5:AK8 AK10:AK11">
-    <cfRule type="expression" dxfId="362" priority="583" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="584" stopIfTrue="1">
       <formula>ISBLANK(AK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="584" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="585" stopIfTrue="1">
       <formula>OR(WEEKDAY(AK$3)=1,WEEKDAY(AK$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="585" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="586" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3:AL4">
-    <cfRule type="expression" dxfId="359" priority="573" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="574" stopIfTrue="1">
       <formula>ISBLANK(AL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="574" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="575" stopIfTrue="1">
       <formula>OR(WEEKDAY(AL$3)=1,WEEKDAY(AL$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL5:AL8 AL10:AL11">
-    <cfRule type="expression" dxfId="357" priority="575" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="576" stopIfTrue="1">
       <formula>ISBLANK(AL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="576" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="577" stopIfTrue="1">
       <formula>OR(WEEKDAY(AL$3)=1,WEEKDAY(AL$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="577" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="578" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM3:AM4">
-    <cfRule type="expression" dxfId="354" priority="565" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="566" stopIfTrue="1">
       <formula>ISBLANK(AM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="566" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="567" stopIfTrue="1">
       <formula>OR(WEEKDAY(AM$3)=1,WEEKDAY(AM$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM5:AM8 AM10:AM11">
-    <cfRule type="expression" dxfId="352" priority="567" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="568" stopIfTrue="1">
       <formula>ISBLANK(AM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="568" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="569" stopIfTrue="1">
       <formula>OR(WEEKDAY(AM$3)=1,WEEKDAY(AM$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="569" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="570" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN3:AN4">
-    <cfRule type="expression" dxfId="349" priority="557" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="558" stopIfTrue="1">
       <formula>ISBLANK(AN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="558" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="559" stopIfTrue="1">
       <formula>OR(WEEKDAY(AN$3)=1,WEEKDAY(AN$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN5:AN8 AN10:AN11">
-    <cfRule type="expression" dxfId="347" priority="559" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="560" stopIfTrue="1">
       <formula>ISBLANK(AN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="560" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="561" stopIfTrue="1">
       <formula>OR(WEEKDAY(AN$3)=1,WEEKDAY(AN$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="561" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="562" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO3:AO4">
-    <cfRule type="expression" dxfId="344" priority="549" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="550" stopIfTrue="1">
       <formula>ISBLANK(AO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="550" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="551" stopIfTrue="1">
       <formula>OR(WEEKDAY(AO$3)=1,WEEKDAY(AO$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AO8 AO10:AO11">
-    <cfRule type="expression" dxfId="342" priority="551" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="552" stopIfTrue="1">
       <formula>ISBLANK(AO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="552" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="553" stopIfTrue="1">
       <formula>OR(WEEKDAY(AO$3)=1,WEEKDAY(AO$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="553" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="554" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP3:AP4">
-    <cfRule type="expression" dxfId="339" priority="541" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="542" stopIfTrue="1">
       <formula>ISBLANK(AP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="542" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="543" stopIfTrue="1">
       <formula>OR(WEEKDAY(AP$3)=1,WEEKDAY(AP$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP5:AP8 AP10:AP11">
-    <cfRule type="expression" dxfId="337" priority="543" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="544" stopIfTrue="1">
       <formula>ISBLANK(AP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="544" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="545" stopIfTrue="1">
       <formula>OR(WEEKDAY(AP$3)=1,WEEKDAY(AP$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="545" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="546" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3:AQ4">
-    <cfRule type="expression" dxfId="334" priority="533" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="534" stopIfTrue="1">
       <formula>ISBLANK(AQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="534" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="535" stopIfTrue="1">
       <formula>OR(WEEKDAY(AQ$3)=1,WEEKDAY(AQ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ5:AQ8 AQ10:AQ11">
-    <cfRule type="expression" dxfId="332" priority="535" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="536" stopIfTrue="1">
       <formula>ISBLANK(AQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="536" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="537" stopIfTrue="1">
       <formula>OR(WEEKDAY(AQ$3)=1,WEEKDAY(AQ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="537" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="538" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR3:AR4">
-    <cfRule type="expression" dxfId="329" priority="525" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="526" stopIfTrue="1">
       <formula>ISBLANK(AR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="526" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="527" stopIfTrue="1">
       <formula>OR(WEEKDAY(AR$3)=1,WEEKDAY(AR$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR5:AR8 AR10:AR11">
-    <cfRule type="expression" dxfId="327" priority="527" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="528" stopIfTrue="1">
       <formula>ISBLANK(AR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="528" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="529" stopIfTrue="1">
       <formula>OR(WEEKDAY(AR$3)=1,WEEKDAY(AR$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="529" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="530" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS3:AS4">
-    <cfRule type="expression" dxfId="324" priority="517" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="518" stopIfTrue="1">
       <formula>ISBLANK(AS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="518" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="519" stopIfTrue="1">
       <formula>OR(WEEKDAY(AS$3)=1,WEEKDAY(AS$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS5:AS8 AS10:AS11">
-    <cfRule type="expression" dxfId="322" priority="519" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="520" stopIfTrue="1">
       <formula>ISBLANK(AS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="520" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="521" stopIfTrue="1">
       <formula>OR(WEEKDAY(AS$3)=1,WEEKDAY(AS$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="521" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="522" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT3:AT4">
-    <cfRule type="expression" dxfId="319" priority="509" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="510" stopIfTrue="1">
       <formula>ISBLANK(AT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="511" stopIfTrue="1">
       <formula>OR(WEEKDAY(AT$3)=1,WEEKDAY(AT$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT5:AT8 AT10:AT11">
-    <cfRule type="expression" dxfId="317" priority="511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="512" stopIfTrue="1">
       <formula>ISBLANK(AT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="513" stopIfTrue="1">
       <formula>OR(WEEKDAY(AT$3)=1,WEEKDAY(AT$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="513" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="514" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU3:AU4">
-    <cfRule type="expression" dxfId="314" priority="501" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="502" stopIfTrue="1">
       <formula>ISBLANK(AU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="502" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="503" stopIfTrue="1">
       <formula>OR(WEEKDAY(AU$3)=1,WEEKDAY(AU$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AU8 AU10:AU11">
-    <cfRule type="expression" dxfId="312" priority="503" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="504" stopIfTrue="1">
       <formula>ISBLANK(AU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="504" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="505" stopIfTrue="1">
       <formula>OR(WEEKDAY(AU$3)=1,WEEKDAY(AU$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="506" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV3:AV4">
-    <cfRule type="expression" dxfId="309" priority="493" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="494" stopIfTrue="1">
       <formula>ISBLANK(AV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="494" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="495" stopIfTrue="1">
       <formula>OR(WEEKDAY(AV$3)=1,WEEKDAY(AV$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV5:AV8 AV10:AV11">
-    <cfRule type="expression" dxfId="307" priority="495" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="496" stopIfTrue="1">
       <formula>ISBLANK(AV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="496" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="497" stopIfTrue="1">
       <formula>OR(WEEKDAY(AV$3)=1,WEEKDAY(AV$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="497" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="498" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW3:AW4">
-    <cfRule type="expression" dxfId="304" priority="485" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="486" stopIfTrue="1">
       <formula>ISBLANK(AW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="486" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="487" stopIfTrue="1">
       <formula>OR(WEEKDAY(AW$3)=1,WEEKDAY(AW$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW5:AW8 AW10:AW11">
-    <cfRule type="expression" dxfId="302" priority="487" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="488" stopIfTrue="1">
       <formula>ISBLANK(AW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="488" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="489" stopIfTrue="1">
       <formula>OR(WEEKDAY(AW$3)=1,WEEKDAY(AW$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="489" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="490" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX3:AX4">
-    <cfRule type="expression" dxfId="299" priority="477" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="478" stopIfTrue="1">
       <formula>ISBLANK(AX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="478" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="479" stopIfTrue="1">
       <formula>OR(WEEKDAY(AX$3)=1,WEEKDAY(AX$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX5:AX8 AX10:AX11">
-    <cfRule type="expression" dxfId="297" priority="479" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="480" stopIfTrue="1">
       <formula>ISBLANK(AX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="480" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="481" stopIfTrue="1">
       <formula>OR(WEEKDAY(AX$3)=1,WEEKDAY(AX$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="481" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="482" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY3:AY4">
-    <cfRule type="expression" dxfId="294" priority="469" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="470" stopIfTrue="1">
       <formula>ISBLANK(AY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="470" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="471" stopIfTrue="1">
       <formula>OR(WEEKDAY(AY$3)=1,WEEKDAY(AY$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY5:AY8 AY10:AY11">
-    <cfRule type="expression" dxfId="292" priority="471" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="472" stopIfTrue="1">
       <formula>ISBLANK(AY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="472" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="473" stopIfTrue="1">
       <formula>OR(WEEKDAY(AY$3)=1,WEEKDAY(AY$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="473" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="474" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ3:AZ4">
-    <cfRule type="expression" dxfId="289" priority="461" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="462" stopIfTrue="1">
       <formula>ISBLANK(AZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="462" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="463" stopIfTrue="1">
       <formula>OR(WEEKDAY(AZ$3)=1,WEEKDAY(AZ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ5:AZ8 AZ10:AZ11">
-    <cfRule type="expression" dxfId="287" priority="463" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="464" stopIfTrue="1">
       <formula>ISBLANK(AZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="464" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="465" stopIfTrue="1">
       <formula>OR(WEEKDAY(AZ$3)=1,WEEKDAY(AZ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="465" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="466" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA3:BA4">
-    <cfRule type="expression" dxfId="284" priority="453" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="454" stopIfTrue="1">
       <formula>ISBLANK(BA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="454" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="455" stopIfTrue="1">
       <formula>OR(WEEKDAY(BA$3)=1,WEEKDAY(BA$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA5:BA8 BA10:BA11">
-    <cfRule type="expression" dxfId="282" priority="455" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="456" stopIfTrue="1">
       <formula>ISBLANK(BA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="456" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="457" stopIfTrue="1">
       <formula>OR(WEEKDAY(BA$3)=1,WEEKDAY(BA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="457" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="458" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB3:BB4">
-    <cfRule type="expression" dxfId="279" priority="445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="446" stopIfTrue="1">
       <formula>ISBLANK(BB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="447" stopIfTrue="1">
       <formula>OR(WEEKDAY(BB$3)=1,WEEKDAY(BB$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB5:BB8 BB10:BB11">
-    <cfRule type="expression" dxfId="277" priority="447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="448" stopIfTrue="1">
       <formula>ISBLANK(BB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="449" stopIfTrue="1">
       <formula>OR(WEEKDAY(BB$3)=1,WEEKDAY(BB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="450" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC3:BC4">
-    <cfRule type="expression" dxfId="274" priority="437" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="438" stopIfTrue="1">
       <formula>ISBLANK(BC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="438" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="439" stopIfTrue="1">
       <formula>OR(WEEKDAY(BC$3)=1,WEEKDAY(BC$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC5:BC8 BC10:BC11">
-    <cfRule type="expression" dxfId="272" priority="439" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="440" stopIfTrue="1">
       <formula>ISBLANK(BC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="440" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="441" stopIfTrue="1">
       <formula>OR(WEEKDAY(BC$3)=1,WEEKDAY(BC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="441" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="442" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD3:BD4">
-    <cfRule type="expression" dxfId="269" priority="429" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="430" stopIfTrue="1">
       <formula>ISBLANK(BD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="430" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="431" stopIfTrue="1">
       <formula>OR(WEEKDAY(BD$3)=1,WEEKDAY(BD$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD5:BD8 BD10:BD11">
-    <cfRule type="expression" dxfId="267" priority="431" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="432" stopIfTrue="1">
       <formula>ISBLANK(BD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="432" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="433" stopIfTrue="1">
       <formula>OR(WEEKDAY(BD$3)=1,WEEKDAY(BD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="433" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="434" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE3:BE4">
-    <cfRule type="expression" dxfId="264" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="422" stopIfTrue="1">
       <formula>ISBLANK(BE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="423" stopIfTrue="1">
       <formula>OR(WEEKDAY(BE$3)=1,WEEKDAY(BE$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE5:BE8 BE10:BE11">
-    <cfRule type="expression" dxfId="262" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="424" stopIfTrue="1">
       <formula>ISBLANK(BE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="425" stopIfTrue="1">
       <formula>OR(WEEKDAY(BE$3)=1,WEEKDAY(BE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="426" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BF4">
-    <cfRule type="expression" dxfId="259" priority="413" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="414" stopIfTrue="1">
       <formula>ISBLANK(BF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="414" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="415" stopIfTrue="1">
       <formula>OR(WEEKDAY(BF$3)=1,WEEKDAY(BF$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF5:BF8 BF10:BF11">
-    <cfRule type="expression" dxfId="257" priority="415" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="416" stopIfTrue="1">
       <formula>ISBLANK(BF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="416" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="417" stopIfTrue="1">
       <formula>OR(WEEKDAY(BF$3)=1,WEEKDAY(BF$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="417" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="418" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG3:BG4">
-    <cfRule type="expression" dxfId="254" priority="405" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="406" stopIfTrue="1">
       <formula>ISBLANK(BG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="407" stopIfTrue="1">
       <formula>OR(WEEKDAY(BG$3)=1,WEEKDAY(BG$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG5:BG8 BG10:BG11">
-    <cfRule type="expression" dxfId="252" priority="407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="408" stopIfTrue="1">
       <formula>ISBLANK(BG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="409" stopIfTrue="1">
       <formula>OR(WEEKDAY(BG$3)=1,WEEKDAY(BG$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="410" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH3:BH4">
-    <cfRule type="expression" dxfId="249" priority="397" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="398" stopIfTrue="1">
       <formula>ISBLANK(BH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="398" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="399" stopIfTrue="1">
       <formula>OR(WEEKDAY(BH$3)=1,WEEKDAY(BH$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH5:BH8 BH10:BH11">
-    <cfRule type="expression" dxfId="247" priority="399" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="400" stopIfTrue="1">
       <formula>ISBLANK(BH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="400" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="401" stopIfTrue="1">
       <formula>OR(WEEKDAY(BH$3)=1,WEEKDAY(BH$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="401" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="402" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI3:BI4">
-    <cfRule type="expression" dxfId="244" priority="389" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="390" stopIfTrue="1">
       <formula>ISBLANK(BI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="390" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="391" stopIfTrue="1">
       <formula>OR(WEEKDAY(BI$3)=1,WEEKDAY(BI$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI5:BI8 BI10:BI11">
-    <cfRule type="expression" dxfId="242" priority="391" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="392" stopIfTrue="1">
       <formula>ISBLANK(BI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="392" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="393" stopIfTrue="1">
       <formula>OR(WEEKDAY(BI$3)=1,WEEKDAY(BI$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="393" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="394" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ3:BJ4">
-    <cfRule type="expression" dxfId="239" priority="381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="382" stopIfTrue="1">
       <formula>ISBLANK(BJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="382" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="383" stopIfTrue="1">
       <formula>OR(WEEKDAY(BJ$3)=1,WEEKDAY(BJ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ5:BJ8 BJ10:BJ11">
-    <cfRule type="expression" dxfId="237" priority="383" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="384" stopIfTrue="1">
       <formula>ISBLANK(BJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="384" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="385" stopIfTrue="1">
       <formula>OR(WEEKDAY(BJ$3)=1,WEEKDAY(BJ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="385" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="386" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK3:BK4">
-    <cfRule type="expression" dxfId="234" priority="373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="374" stopIfTrue="1">
       <formula>ISBLANK(BK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="374" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="375" stopIfTrue="1">
       <formula>OR(WEEKDAY(BK$3)=1,WEEKDAY(BK$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK5:BK8 BK10:BK11">
-    <cfRule type="expression" dxfId="232" priority="375" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="376" stopIfTrue="1">
       <formula>ISBLANK(BK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="376" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="377" stopIfTrue="1">
       <formula>OR(WEEKDAY(BK$3)=1,WEEKDAY(BK$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="377" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="378" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL3:BL4">
-    <cfRule type="expression" dxfId="229" priority="365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="366" stopIfTrue="1">
       <formula>ISBLANK(BL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="367" stopIfTrue="1">
       <formula>OR(WEEKDAY(BL$3)=1,WEEKDAY(BL$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL5:BL8 BL10:BL11">
-    <cfRule type="expression" dxfId="227" priority="367" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="368" stopIfTrue="1">
       <formula>ISBLANK(BL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="369" stopIfTrue="1">
       <formula>OR(WEEKDAY(BL$3)=1,WEEKDAY(BL$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="370" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM3:BM4">
-    <cfRule type="expression" dxfId="224" priority="357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="358" stopIfTrue="1">
       <formula>ISBLANK(BM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="359" stopIfTrue="1">
       <formula>OR(WEEKDAY(BM$3)=1,WEEKDAY(BM$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM5:BM8 BM10:BM11">
-    <cfRule type="expression" dxfId="222" priority="359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="360" stopIfTrue="1">
       <formula>ISBLANK(BM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="360" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="361" stopIfTrue="1">
       <formula>OR(WEEKDAY(BM$3)=1,WEEKDAY(BM$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="361" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="362" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN3:BN4">
-    <cfRule type="expression" dxfId="219" priority="349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="350" stopIfTrue="1">
       <formula>ISBLANK(BN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="351" stopIfTrue="1">
       <formula>OR(WEEKDAY(BN$3)=1,WEEKDAY(BN$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN5:BN8 BN10:BN11">
-    <cfRule type="expression" dxfId="217" priority="351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="352" stopIfTrue="1">
       <formula>ISBLANK(BN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="353" stopIfTrue="1">
       <formula>OR(WEEKDAY(BN$3)=1,WEEKDAY(BN$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="354" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO3:BO4">
-    <cfRule type="expression" dxfId="214" priority="341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="342" stopIfTrue="1">
       <formula>ISBLANK(BO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="342" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="343" stopIfTrue="1">
       <formula>OR(WEEKDAY(BO$3)=1,WEEKDAY(BO$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO5:BO8 BO10:BO11">
-    <cfRule type="expression" dxfId="212" priority="343" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="344" stopIfTrue="1">
       <formula>ISBLANK(BO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="344" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="345" stopIfTrue="1">
       <formula>OR(WEEKDAY(BO$3)=1,WEEKDAY(BO$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="346" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP3:BP4">
-    <cfRule type="expression" dxfId="209" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="334" stopIfTrue="1">
       <formula>ISBLANK(BP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="335" stopIfTrue="1">
       <formula>OR(WEEKDAY(BP$3)=1,WEEKDAY(BP$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP5:BP8 BP10:BP11">
-    <cfRule type="expression" dxfId="207" priority="335" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="336" stopIfTrue="1">
       <formula>ISBLANK(BP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="337" stopIfTrue="1">
       <formula>OR(WEEKDAY(BP$3)=1,WEEKDAY(BP$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="338" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ3:BQ4">
-    <cfRule type="expression" dxfId="204" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="326" stopIfTrue="1">
       <formula>ISBLANK(BQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="326" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="327" stopIfTrue="1">
       <formula>OR(WEEKDAY(BQ$3)=1,WEEKDAY(BQ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ5:BQ8 BQ10:BQ11">
-    <cfRule type="expression" dxfId="202" priority="327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="328" stopIfTrue="1">
       <formula>ISBLANK(BQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="329" stopIfTrue="1">
       <formula>OR(WEEKDAY(BQ$3)=1,WEEKDAY(BQ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="330" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR3:BR4">
-    <cfRule type="expression" dxfId="199" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="318" stopIfTrue="1">
       <formula>ISBLANK(BR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="319" stopIfTrue="1">
       <formula>OR(WEEKDAY(BR$3)=1,WEEKDAY(BR$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR5:BR8 BR10:BR11">
-    <cfRule type="expression" dxfId="197" priority="319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="320" stopIfTrue="1">
       <formula>ISBLANK(BR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="321" stopIfTrue="1">
       <formula>OR(WEEKDAY(BR$3)=1,WEEKDAY(BR$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="322" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS3:BS4">
-    <cfRule type="expression" dxfId="194" priority="309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="310" stopIfTrue="1">
       <formula>ISBLANK(BS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="311" stopIfTrue="1">
       <formula>OR(WEEKDAY(BS$3)=1,WEEKDAY(BS$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS5:BS8 BS10:BS11">
-    <cfRule type="expression" dxfId="192" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="312" stopIfTrue="1">
       <formula>ISBLANK(BS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="313" stopIfTrue="1">
       <formula>OR(WEEKDAY(BS$3)=1,WEEKDAY(BS$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="314" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT3:BT4">
-    <cfRule type="expression" dxfId="189" priority="301" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="302" stopIfTrue="1">
       <formula>ISBLANK(BT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="302" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="303" stopIfTrue="1">
       <formula>OR(WEEKDAY(BT$3)=1,WEEKDAY(BT$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT5:BT8 BT10:BT11">
-    <cfRule type="expression" dxfId="187" priority="303" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="304" stopIfTrue="1">
       <formula>ISBLANK(BT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="305" stopIfTrue="1">
       <formula>OR(WEEKDAY(BT$3)=1,WEEKDAY(BT$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="306" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU3:BU4">
-    <cfRule type="expression" dxfId="184" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="294" stopIfTrue="1">
       <formula>ISBLANK(BU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="295" stopIfTrue="1">
       <formula>OR(WEEKDAY(BU$3)=1,WEEKDAY(BU$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU5:BU8 BU10:BU11">
-    <cfRule type="expression" dxfId="182" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="296" stopIfTrue="1">
       <formula>ISBLANK(BU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="297" stopIfTrue="1">
       <formula>OR(WEEKDAY(BU$3)=1,WEEKDAY(BU$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="298" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV3:BV4">
-    <cfRule type="expression" dxfId="179" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="286" stopIfTrue="1">
       <formula>ISBLANK(BV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="287" stopIfTrue="1">
       <formula>OR(WEEKDAY(BV$3)=1,WEEKDAY(BV$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV5:BV8 BV10:BV11">
-    <cfRule type="expression" dxfId="177" priority="287" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="288" stopIfTrue="1">
       <formula>ISBLANK(BV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="289" stopIfTrue="1">
       <formula>OR(WEEKDAY(BV$3)=1,WEEKDAY(BV$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="290" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW3:BW4">
-    <cfRule type="expression" dxfId="174" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="278" stopIfTrue="1">
       <formula>ISBLANK(BW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="279" stopIfTrue="1">
       <formula>OR(WEEKDAY(BW$3)=1,WEEKDAY(BW$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW5:BW8 BW10:BW11">
-    <cfRule type="expression" dxfId="172" priority="279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="280" stopIfTrue="1">
       <formula>ISBLANK(BW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="281" stopIfTrue="1">
       <formula>OR(WEEKDAY(BW$3)=1,WEEKDAY(BW$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="282" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX3:BX4">
-    <cfRule type="expression" dxfId="169" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="270" stopIfTrue="1">
       <formula>ISBLANK(BX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="270" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="271" stopIfTrue="1">
       <formula>OR(WEEKDAY(BX$3)=1,WEEKDAY(BX$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX5:BX8 BX10:BX11">
-    <cfRule type="expression" dxfId="167" priority="271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="272" stopIfTrue="1">
       <formula>ISBLANK(BX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="273" stopIfTrue="1">
       <formula>OR(WEEKDAY(BX$3)=1,WEEKDAY(BX$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="274" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY3:BY4">
-    <cfRule type="expression" dxfId="164" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="262" stopIfTrue="1">
       <formula>ISBLANK(BY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="263" stopIfTrue="1">
       <formula>OR(WEEKDAY(BY$3)=1,WEEKDAY(BY$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:BY8 BY10:BY11">
-    <cfRule type="expression" dxfId="162" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="264" stopIfTrue="1">
       <formula>ISBLANK(BY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="265" stopIfTrue="1">
       <formula>OR(WEEKDAY(BY$3)=1,WEEKDAY(BY$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="266" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ3:BZ4">
-    <cfRule type="expression" dxfId="159" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="254" stopIfTrue="1">
       <formula>ISBLANK(BZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="255" stopIfTrue="1">
       <formula>OR(WEEKDAY(BZ$3)=1,WEEKDAY(BZ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ5:BZ8 BZ10:BZ11">
-    <cfRule type="expression" dxfId="157" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="256" stopIfTrue="1">
       <formula>ISBLANK(BZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="257" stopIfTrue="1">
       <formula>OR(WEEKDAY(BZ$3)=1,WEEKDAY(BZ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="258" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA3:CA4">
-    <cfRule type="expression" dxfId="154" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="246" stopIfTrue="1">
       <formula>ISBLANK(CA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="247" stopIfTrue="1">
       <formula>OR(WEEKDAY(CA$3)=1,WEEKDAY(CA$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA5:CA8 CA10:CA11">
-    <cfRule type="expression" dxfId="152" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="248" stopIfTrue="1">
       <formula>ISBLANK(CA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="249" stopIfTrue="1">
       <formula>OR(WEEKDAY(CA$3)=1,WEEKDAY(CA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="250" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB3:CB4">
-    <cfRule type="expression" dxfId="149" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="238" stopIfTrue="1">
       <formula>ISBLANK(CB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="239" stopIfTrue="1">
       <formula>OR(WEEKDAY(CB$3)=1,WEEKDAY(CB$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB5:CB8 CB10:CB11">
-    <cfRule type="expression" dxfId="147" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="240" stopIfTrue="1">
       <formula>ISBLANK(CB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="241" stopIfTrue="1">
       <formula>OR(WEEKDAY(CB$3)=1,WEEKDAY(CB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="242" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC3:CC4">
-    <cfRule type="expression" dxfId="144" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="230" stopIfTrue="1">
       <formula>ISBLANK(CC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="231" stopIfTrue="1">
       <formula>OR(WEEKDAY(CC$3)=1,WEEKDAY(CC$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC5:CC8 CC10:CC11">
-    <cfRule type="expression" dxfId="142" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="232" stopIfTrue="1">
       <formula>ISBLANK(CC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="233" stopIfTrue="1">
       <formula>OR(WEEKDAY(CC$3)=1,WEEKDAY(CC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="234" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD3:CD4">
-    <cfRule type="expression" dxfId="139" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="222" stopIfTrue="1">
       <formula>ISBLANK(CD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="223" stopIfTrue="1">
       <formula>OR(WEEKDAY(CD$3)=1,WEEKDAY(CD$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD5:CD8 CD10:CD11">
-    <cfRule type="expression" dxfId="137" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="224" stopIfTrue="1">
       <formula>ISBLANK(CD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="225" stopIfTrue="1">
       <formula>OR(WEEKDAY(CD$3)=1,WEEKDAY(CD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="226" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE3:CE4">
-    <cfRule type="expression" dxfId="134" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="214" stopIfTrue="1">
       <formula>ISBLANK(CE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="215" stopIfTrue="1">
       <formula>OR(WEEKDAY(CE$3)=1,WEEKDAY(CE$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE5:CE8 CE10:CE11">
-    <cfRule type="expression" dxfId="132" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="216" stopIfTrue="1">
       <formula>ISBLANK(CE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="217" stopIfTrue="1">
       <formula>OR(WEEKDAY(CE$3)=1,WEEKDAY(CE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="218" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF3:CF4">
-    <cfRule type="expression" dxfId="129" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="206" stopIfTrue="1">
       <formula>ISBLANK(CF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="207" stopIfTrue="1">
       <formula>OR(WEEKDAY(CF$3)=1,WEEKDAY(CF$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF5:CF8 CF10:CF11">
-    <cfRule type="expression" dxfId="127" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="208" stopIfTrue="1">
       <formula>ISBLANK(CF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="209" stopIfTrue="1">
       <formula>OR(WEEKDAY(CF$3)=1,WEEKDAY(CF$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="210" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG3:CG4">
-    <cfRule type="expression" dxfId="124" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="198" stopIfTrue="1">
       <formula>ISBLANK(CG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="199" stopIfTrue="1">
       <formula>OR(WEEKDAY(CG$3)=1,WEEKDAY(CG$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG5:CG8 CG10:CG11">
-    <cfRule type="expression" dxfId="122" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="200" stopIfTrue="1">
       <formula>ISBLANK(CG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="201" stopIfTrue="1">
       <formula>OR(WEEKDAY(CG$3)=1,WEEKDAY(CG$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="202" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH3:CH4">
-    <cfRule type="expression" dxfId="119" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="190" stopIfTrue="1">
       <formula>ISBLANK(CH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="191" stopIfTrue="1">
       <formula>OR(WEEKDAY(CH$3)=1,WEEKDAY(CH$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH5:CH8 CH10:CH11">
-    <cfRule type="expression" dxfId="117" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="192" stopIfTrue="1">
       <formula>ISBLANK(CH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="193" stopIfTrue="1">
       <formula>OR(WEEKDAY(CH$3)=1,WEEKDAY(CH$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="194" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI3:CI4">
-    <cfRule type="expression" dxfId="114" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="182" stopIfTrue="1">
       <formula>ISBLANK(CI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="183" stopIfTrue="1">
       <formula>OR(WEEKDAY(CI$3)=1,WEEKDAY(CI$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI5:CI8 CI10:CI11">
-    <cfRule type="expression" dxfId="112" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="184" stopIfTrue="1">
       <formula>ISBLANK(CI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="185" stopIfTrue="1">
       <formula>OR(WEEKDAY(CI$3)=1,WEEKDAY(CI$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="186" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ3:CJ4">
-    <cfRule type="expression" dxfId="109" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="174" stopIfTrue="1">
       <formula>ISBLANK(CJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="175" stopIfTrue="1">
       <formula>OR(WEEKDAY(CJ$3)=1,WEEKDAY(CJ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ5:CJ8 CJ10:CJ11">
-    <cfRule type="expression" dxfId="107" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="176" stopIfTrue="1">
       <formula>ISBLANK(CJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="177" stopIfTrue="1">
       <formula>OR(WEEKDAY(CJ$3)=1,WEEKDAY(CJ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="178" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK3:CK4">
-    <cfRule type="expression" dxfId="104" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="166" stopIfTrue="1">
       <formula>ISBLANK(CK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="167" stopIfTrue="1">
       <formula>OR(WEEKDAY(CK$3)=1,WEEKDAY(CK$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK5:CK8 CK10:CK11">
-    <cfRule type="expression" dxfId="102" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="168" stopIfTrue="1">
       <formula>ISBLANK(CK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="169" stopIfTrue="1">
       <formula>OR(WEEKDAY(CK$3)=1,WEEKDAY(CK$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="170" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL3:CL4">
-    <cfRule type="expression" dxfId="99" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="158" stopIfTrue="1">
       <formula>ISBLANK(CL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="159" stopIfTrue="1">
       <formula>OR(WEEKDAY(CL$3)=1,WEEKDAY(CL$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL5:CL8 CL10:CL11">
-    <cfRule type="expression" dxfId="97" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="160" stopIfTrue="1">
       <formula>ISBLANK(CL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="161" stopIfTrue="1">
       <formula>OR(WEEKDAY(CL$3)=1,WEEKDAY(CL$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="162" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM3:CM4">
-    <cfRule type="expression" dxfId="94" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="150" stopIfTrue="1">
       <formula>ISBLANK(CM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="151" stopIfTrue="1">
       <formula>OR(WEEKDAY(CM$3)=1,WEEKDAY(CM$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM5:CM8 CM10:CM11">
-    <cfRule type="expression" dxfId="92" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="152" stopIfTrue="1">
       <formula>ISBLANK(CM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="153" stopIfTrue="1">
       <formula>OR(WEEKDAY(CM$3)=1,WEEKDAY(CM$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="154" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN3:CN4">
-    <cfRule type="expression" dxfId="89" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="142" stopIfTrue="1">
       <formula>ISBLANK(CN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="143" stopIfTrue="1">
       <formula>OR(WEEKDAY(CN$3)=1,WEEKDAY(CN$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN5:CN8 CN10:CN11">
-    <cfRule type="expression" dxfId="87" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="144" stopIfTrue="1">
       <formula>ISBLANK(CN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="145" stopIfTrue="1">
       <formula>OR(WEEKDAY(CN$3)=1,WEEKDAY(CN$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="146" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO3:CO4">
-    <cfRule type="expression" dxfId="84" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="134" stopIfTrue="1">
       <formula>ISBLANK(CO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="135" stopIfTrue="1">
       <formula>OR(WEEKDAY(CO$3)=1,WEEKDAY(CO$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO5:CO8 CO10:CO11">
-    <cfRule type="expression" dxfId="82" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="136" stopIfTrue="1">
       <formula>ISBLANK(CO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="137" stopIfTrue="1">
       <formula>OR(WEEKDAY(CO$3)=1,WEEKDAY(CO$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="138" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP3:CP4">
-    <cfRule type="expression" dxfId="79" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="126" stopIfTrue="1">
       <formula>ISBLANK(CP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="127" stopIfTrue="1">
       <formula>OR(WEEKDAY(CP$3)=1,WEEKDAY(CP$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP5:CP8 CP10:CP11">
-    <cfRule type="expression" dxfId="77" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="128" stopIfTrue="1">
       <formula>ISBLANK(CP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="129" stopIfTrue="1">
       <formula>OR(WEEKDAY(CP$3)=1,WEEKDAY(CP$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="130" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ3:CQ4">
-    <cfRule type="expression" dxfId="74" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="118" stopIfTrue="1">
       <formula>ISBLANK(CQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="119" stopIfTrue="1">
       <formula>OR(WEEKDAY(CQ$3)=1,WEEKDAY(CQ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ5:CQ8 CQ10:CQ11">
-    <cfRule type="expression" dxfId="72" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="120" stopIfTrue="1">
       <formula>ISBLANK(CQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="121" stopIfTrue="1">
       <formula>OR(WEEKDAY(CQ$3)=1,WEEKDAY(CQ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="122" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR3:CR4">
-    <cfRule type="expression" dxfId="69" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="110" stopIfTrue="1">
       <formula>ISBLANK(CR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="111" stopIfTrue="1">
       <formula>OR(WEEKDAY(CR$3)=1,WEEKDAY(CR$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR5:CR8 CR10:CR11">
-    <cfRule type="expression" dxfId="67" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="112" stopIfTrue="1">
       <formula>ISBLANK(CR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="113" stopIfTrue="1">
       <formula>OR(WEEKDAY(CR$3)=1,WEEKDAY(CR$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="114" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS3:CS4">
-    <cfRule type="expression" dxfId="64" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="102" stopIfTrue="1">
       <formula>ISBLANK(CS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="103" stopIfTrue="1">
       <formula>OR(WEEKDAY(CS$3)=1,WEEKDAY(CS$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS5:CS8 CS10:CS11">
-    <cfRule type="expression" dxfId="62" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="104" stopIfTrue="1">
       <formula>ISBLANK(CS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="105" stopIfTrue="1">
       <formula>OR(WEEKDAY(CS$3)=1,WEEKDAY(CS$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="106" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT3:CT4">
-    <cfRule type="expression" dxfId="59" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="94" stopIfTrue="1">
       <formula>ISBLANK(CT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="95" stopIfTrue="1">
       <formula>OR(WEEKDAY(CT$3)=1,WEEKDAY(CT$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT5:CT8 CT10:CT11">
-    <cfRule type="expression" dxfId="57" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="96" stopIfTrue="1">
       <formula>ISBLANK(CT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="97" stopIfTrue="1">
       <formula>OR(WEEKDAY(CT$3)=1,WEEKDAY(CT$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="98" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU3:CU4">
-    <cfRule type="expression" dxfId="54" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="86" stopIfTrue="1">
       <formula>ISBLANK(CU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="87" stopIfTrue="1">
       <formula>OR(WEEKDAY(CU$3)=1,WEEKDAY(CU$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU5:CU8 CU10:CU11">
-    <cfRule type="expression" dxfId="52" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="88" stopIfTrue="1">
       <formula>ISBLANK(CU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="89" stopIfTrue="1">
       <formula>OR(WEEKDAY(CU$3)=1,WEEKDAY(CU$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="90" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV3:CV4">
-    <cfRule type="expression" dxfId="49" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="78" stopIfTrue="1">
       <formula>ISBLANK(CV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="79" stopIfTrue="1">
       <formula>OR(WEEKDAY(CV$3)=1,WEEKDAY(CV$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV5:CV8 CV10:CV11">
-    <cfRule type="expression" dxfId="47" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="80" stopIfTrue="1">
       <formula>ISBLANK(CV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="81" stopIfTrue="1">
       <formula>OR(WEEKDAY(CV$3)=1,WEEKDAY(CV$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="82" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW3:CW4">
-    <cfRule type="expression" dxfId="44" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="70" stopIfTrue="1">
       <formula>ISBLANK(CW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="71" stopIfTrue="1">
       <formula>OR(WEEKDAY(CW$3)=1,WEEKDAY(CW$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW5:CW8 CW10:CW11">
-    <cfRule type="expression" dxfId="42" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="72" stopIfTrue="1">
       <formula>ISBLANK(CW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="73" stopIfTrue="1">
       <formula>OR(WEEKDAY(CW$3)=1,WEEKDAY(CW$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX3:CX4">
-    <cfRule type="expression" dxfId="39" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="62" stopIfTrue="1">
       <formula>ISBLANK(CX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="63" stopIfTrue="1">
       <formula>OR(WEEKDAY(CX$3)=1,WEEKDAY(CX$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX5:CX8 CX10:CX11">
-    <cfRule type="expression" dxfId="37" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="64" stopIfTrue="1">
       <formula>ISBLANK(CX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="65" stopIfTrue="1">
       <formula>OR(WEEKDAY(CX$3)=1,WEEKDAY(CX$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY3:CY4">
-    <cfRule type="expression" dxfId="34" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="54" stopIfTrue="1">
       <formula>ISBLANK(CY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="55" stopIfTrue="1">
       <formula>OR(WEEKDAY(CY$3)=1,WEEKDAY(CY$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY5:CY8 CY10:CY11">
-    <cfRule type="expression" dxfId="32" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="56" stopIfTrue="1">
       <formula>ISBLANK(CY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="57" stopIfTrue="1">
       <formula>OR(WEEKDAY(CY$3)=1,WEEKDAY(CY$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ3:CZ4">
-    <cfRule type="expression" dxfId="29" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="46" stopIfTrue="1">
       <formula>ISBLANK(CZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="47" stopIfTrue="1">
       <formula>OR(WEEKDAY(CZ$3)=1,WEEKDAY(CZ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ5:CZ8 CZ10:CZ11">
-    <cfRule type="expression" dxfId="27" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="48" stopIfTrue="1">
       <formula>ISBLANK(CZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="49" stopIfTrue="1">
       <formula>OR(WEEKDAY(CZ$3)=1,WEEKDAY(CZ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA3:DA4">
-    <cfRule type="expression" dxfId="24" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="38" stopIfTrue="1">
       <formula>ISBLANK(DA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="39" stopIfTrue="1">
       <formula>OR(WEEKDAY(DA$3)=1,WEEKDAY(DA$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA5:DA8 DA10:DA11">
-    <cfRule type="expression" dxfId="22" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="40" stopIfTrue="1">
       <formula>ISBLANK(DA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="41" stopIfTrue="1">
       <formula>OR(WEEKDAY(DA$3)=1,WEEKDAY(DA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DB3:DB4">
-    <cfRule type="expression" dxfId="19" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="30" stopIfTrue="1">
       <formula>ISBLANK(DB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="31" stopIfTrue="1">
       <formula>OR(WEEKDAY(DB$3)=1,WEEKDAY(DB$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DB5:DB8 DB10:DB11">
-    <cfRule type="expression" dxfId="17" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="32" stopIfTrue="1">
       <formula>ISBLANK(DB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="33" stopIfTrue="1">
       <formula>OR(WEEKDAY(DB$3)=1,WEEKDAY(DB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC3:DC4">
-    <cfRule type="expression" dxfId="14" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="22" stopIfTrue="1">
       <formula>ISBLANK(DC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="23" stopIfTrue="1">
       <formula>OR(WEEKDAY(DC$3)=1,WEEKDAY(DC$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC5:DC8 DC10:DC11">
-    <cfRule type="expression" dxfId="12" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="24" stopIfTrue="1">
       <formula>ISBLANK(DC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="25" stopIfTrue="1">
       <formula>OR(WEEKDAY(DC$3)=1,WEEKDAY(DC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD3:DD4">
-    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
       <formula>ISBLANK(DD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
       <formula>OR(WEEKDAY(DD$3)=1,WEEKDAY(DD$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD5:DD8 DD10:DD11">
-    <cfRule type="expression" dxfId="7" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="16" stopIfTrue="1">
       <formula>ISBLANK(DD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="17" stopIfTrue="1">
       <formula>OR(WEEKDAY(DD$3)=1,WEEKDAY(DD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE3:DE4">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>ISBLANK(DE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>OR(WEEKDAY(DE$3)=1,WEEKDAY(DE$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE5:DE8 DE10:DE11">
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
       <formula>ISBLANK(DE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="9" stopIfTrue="1">
       <formula>OR(WEEKDAY(DE$3)=1,WEEKDAY(DE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/GantExcel/未来創造展_ガントチャート/02_各画面.xlsx
+++ b/GantExcel/未来創造展_ガントチャート/02_各画面.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\SourceTree\NoOverTime\GantExcel\未来創造展_ガントチャート\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="17235" windowHeight="10545"/>
+    <workbookView minimized="1" xWindow="480" yWindow="45" windowWidth="17235" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト" sheetId="4" r:id="rId1"/>
@@ -27,7 +32,7 @@
     <definedName name="担当者列">プロジェクト!$C$9</definedName>
     <definedName name="報告日">プロジェクト!$F$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -981,6 +986,9 @@
     <xf numFmtId="9" fontId="5" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1010,9 +1018,6 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4640,7 +4645,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4682,7 +4687,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4717,7 +4722,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4930,11 +4935,11 @@
   <dimension ref="A1:DE129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="8" ySplit="9" topLeftCell="I25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:B7"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4957,11 +4962,11 @@
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="67">
+      <c r="F1" s="68">
         <v>42665</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="4">
         <f>IF(I3&lt;&gt;DATE(YEAR(I3),MONTH(I3)+1,1)-1,MONTH(I3),"")</f>
         <v>10</v>
@@ -5377,11 +5382,11 @@
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69">
+      <c r="F2" s="70">
         <v>42665.867199074077</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
@@ -5543,28 +5548,28 @@
       </c>
     </row>
     <row r="3" spans="1:109" ht="11.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="67" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="9">
@@ -5972,14 +5977,14 @@
       </c>
     </row>
     <row r="4" spans="1:109" ht="11.25" customHeight="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="66"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="11">
         <f>I3</f>
         <v>42663</v>
@@ -6611,7 +6616,7 @@
     </row>
     <row r="7" spans="1:109" ht="39" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="66" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="15"/>
